--- a/doc/学習プログラム仕様/設計書_社員家族情報管理.xlsx
+++ b/doc/学習プログラム仕様/設計書_社員家族情報管理.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5C026D-4B00-4B5A-8548-EDB2EAD82E60}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37B3DEF-91D8-4180-BEFB-2892F53C5377}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12015" windowHeight="3000" tabRatio="880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <definedName name="HTML_OS" hidden="1">0</definedName>
     <definedName name="HTML_PathFile" hidden="1">"C:\temp\MyHTML.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"見積検討会"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">画面仕様!$A$1:$AC$281</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">画面仕様!$A$1:$AC$282</definedName>
   </definedNames>
   <calcPr calcId="171027" calcMode="manual"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="272">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -1652,6 +1652,13 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>社員情報用 会話スコープコントローラーを設定します。</t>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
@@ -2530,13 +2537,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>267750</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>66085</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2606,13 +2613,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>267750</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>35765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3688,13 +3695,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>87311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>58736</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3781,13 +3788,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3874,13 +3881,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>90488</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>179388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>150813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3967,13 +3974,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>184151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>158749</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4060,13 +4067,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>182563</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4153,13 +4160,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>239712</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>160337</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>82549</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4246,13 +4253,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19048</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>223835</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4339,13 +4346,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>87313</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>15876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>198438</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>193676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4432,13 +4439,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>131762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4525,13 +4532,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>68262</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>79376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>179387</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>50801</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4618,13 +4625,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>179387</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>196852</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4711,13 +4718,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>65088</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>36513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>271463</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>7938</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4804,13 +4811,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>192087</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>111124</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4897,13 +4904,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>271464</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>44451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>192089</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>15876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4990,13 +4997,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>263525</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5083,13 +5090,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>169863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>212725</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>141288</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5482,10 +5489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24717B58-B430-4930-B995-117C7FEEAC96}">
-  <dimension ref="A1:AJ279"/>
+  <dimension ref="A1:AJ280"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G279" sqref="G279"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A265" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
@@ -6536,7 +6543,7 @@
         <v>159</v>
       </c>
       <c r="R54" s="92" t="s">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="S54" s="92"/>
       <c r="T54" s="92"/>
@@ -6571,7 +6578,7 @@
         <v>159</v>
       </c>
       <c r="R55" s="92" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="S55" s="92"/>
       <c r="T55" s="92"/>
@@ -6606,7 +6613,7 @@
         <v>159</v>
       </c>
       <c r="R56" s="92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S56" s="92"/>
       <c r="T56" s="92"/>
@@ -6640,10 +6647,10 @@
       <c r="Q57" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R57" s="92"/>
-      <c r="S57" s="92" t="s">
-        <v>73</v>
-      </c>
+      <c r="R57" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="S57" s="92"/>
       <c r="T57" s="92"/>
       <c r="U57" s="92"/>
       <c r="V57" s="92"/>
@@ -6677,7 +6684,7 @@
       </c>
       <c r="R58" s="92"/>
       <c r="S58" s="92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T58" s="92"/>
       <c r="U58" s="92"/>
@@ -6711,10 +6718,10 @@
         <v>159</v>
       </c>
       <c r="R59" s="92"/>
-      <c r="S59" s="92"/>
-      <c r="T59" s="119" t="s">
-        <v>175</v>
-      </c>
+      <c r="S59" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="T59" s="92"/>
       <c r="U59" s="92"/>
       <c r="V59" s="92"/>
       <c r="W59" s="92"/>
@@ -6745,11 +6752,11 @@
       <c r="Q60" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R60" s="92" t="s">
-        <v>77</v>
-      </c>
+      <c r="R60" s="92"/>
       <c r="S60" s="92"/>
-      <c r="T60" s="92"/>
+      <c r="T60" s="119" t="s">
+        <v>175</v>
+      </c>
       <c r="U60" s="92"/>
       <c r="V60" s="92"/>
       <c r="W60" s="92"/>
@@ -6780,9 +6787,10 @@
       <c r="Q61" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="S61" s="92" t="s">
-        <v>74</v>
-      </c>
+      <c r="R61" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="S61" s="92"/>
       <c r="T61" s="92"/>
       <c r="U61" s="92"/>
       <c r="V61" s="92"/>
@@ -6814,11 +6822,10 @@
       <c r="Q62" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R62" s="92"/>
-      <c r="S62" s="92"/>
-      <c r="T62" s="119" t="s">
-        <v>175</v>
-      </c>
+      <c r="S62" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="T62" s="92"/>
       <c r="U62" s="92"/>
       <c r="V62" s="92"/>
       <c r="W62" s="92"/>
@@ -6834,212 +6841,212 @@
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
       <c r="D63" s="28"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="93"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="95"/>
-      <c r="I63" s="95"/>
-      <c r="J63" s="95"/>
-      <c r="K63" s="95"/>
-      <c r="L63" s="95"/>
-      <c r="M63" s="96"/>
-      <c r="N63" s="97"/>
-      <c r="O63" s="98"/>
-      <c r="P63" s="99"/>
-      <c r="Q63" s="100"/>
-      <c r="R63" s="80"/>
-      <c r="S63" s="80"/>
-      <c r="T63" s="80"/>
-      <c r="U63" s="80"/>
-      <c r="V63" s="80"/>
-      <c r="W63" s="80"/>
-      <c r="X63" s="80"/>
-      <c r="Y63" s="80"/>
-      <c r="Z63" s="80"/>
-      <c r="AA63" s="80"/>
-      <c r="AB63" s="80"/>
-      <c r="AC63" s="99"/>
-    </row>
-    <row r="64" spans="1:29" s="111" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A64" s="102"/>
-      <c r="B64" s="102"/>
-      <c r="C64" s="102"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="103">
+      <c r="E63" s="83"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="86"/>
+      <c r="I63" s="86"/>
+      <c r="J63" s="86"/>
+      <c r="K63" s="86"/>
+      <c r="L63" s="86"/>
+      <c r="M63" s="87"/>
+      <c r="N63" s="88"/>
+      <c r="O63" s="89"/>
+      <c r="P63" s="90"/>
+      <c r="Q63" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="R63" s="92"/>
+      <c r="S63" s="92"/>
+      <c r="T63" s="119" t="s">
+        <v>175</v>
+      </c>
+      <c r="U63" s="92"/>
+      <c r="V63" s="92"/>
+      <c r="W63" s="92"/>
+      <c r="X63" s="92"/>
+      <c r="Y63" s="92"/>
+      <c r="Z63" s="92"/>
+      <c r="AA63" s="92"/>
+      <c r="AB63" s="92"/>
+      <c r="AC63" s="90"/>
+    </row>
+    <row r="64" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="94"/>
+      <c r="H64" s="95"/>
+      <c r="I64" s="95"/>
+      <c r="J64" s="95"/>
+      <c r="K64" s="95"/>
+      <c r="L64" s="95"/>
+      <c r="M64" s="96"/>
+      <c r="N64" s="97"/>
+      <c r="O64" s="98"/>
+      <c r="P64" s="99"/>
+      <c r="Q64" s="100"/>
+      <c r="R64" s="80"/>
+      <c r="S64" s="80"/>
+      <c r="T64" s="80"/>
+      <c r="U64" s="80"/>
+      <c r="V64" s="80"/>
+      <c r="W64" s="80"/>
+      <c r="X64" s="80"/>
+      <c r="Y64" s="80"/>
+      <c r="Z64" s="80"/>
+      <c r="AA64" s="80"/>
+      <c r="AB64" s="80"/>
+      <c r="AC64" s="99"/>
+    </row>
+    <row r="65" spans="1:29" s="111" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A65" s="102"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="102"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="103">
         <v>2</v>
       </c>
-      <c r="F64" s="104">
+      <c r="F65" s="104">
         <v>2</v>
       </c>
-      <c r="G64" s="105" t="s">
+      <c r="G65" s="105" t="s">
         <v>266</v>
       </c>
-      <c r="H64" s="106"/>
-      <c r="I64" s="106"/>
-      <c r="J64" s="106"/>
-      <c r="K64" s="106"/>
-      <c r="L64" s="106"/>
-      <c r="M64" s="107"/>
-      <c r="N64" s="58" t="s">
+      <c r="H65" s="106"/>
+      <c r="I65" s="106"/>
+      <c r="J65" s="106"/>
+      <c r="K65" s="106"/>
+      <c r="L65" s="106"/>
+      <c r="M65" s="107"/>
+      <c r="N65" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="O64" s="108"/>
-      <c r="P64" s="109"/>
-      <c r="Q64" s="58" t="s">
+      <c r="O65" s="108"/>
+      <c r="P65" s="109"/>
+      <c r="Q65" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="R64" s="110"/>
-      <c r="S64" s="110"/>
-      <c r="T64" s="110"/>
-      <c r="U64" s="110"/>
-      <c r="V64" s="110"/>
-      <c r="W64" s="110"/>
-      <c r="X64" s="110"/>
-      <c r="Y64" s="110"/>
-      <c r="Z64" s="110"/>
-      <c r="AA64" s="110"/>
-      <c r="AB64" s="110"/>
-      <c r="AC64" s="109"/>
-    </row>
-    <row r="65" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="86"/>
-      <c r="I65" s="86"/>
-      <c r="J65" s="86"/>
-      <c r="K65" s="86"/>
-      <c r="L65" s="86"/>
-      <c r="M65" s="87"/>
-      <c r="N65" s="88"/>
-      <c r="O65" s="89"/>
-      <c r="P65" s="90"/>
-      <c r="Q65" s="101" t="s">
+      <c r="R65" s="110"/>
+      <c r="S65" s="110"/>
+      <c r="T65" s="110"/>
+      <c r="U65" s="110"/>
+      <c r="V65" s="110"/>
+      <c r="W65" s="110"/>
+      <c r="X65" s="110"/>
+      <c r="Y65" s="110"/>
+      <c r="Z65" s="110"/>
+      <c r="AA65" s="110"/>
+      <c r="AB65" s="110"/>
+      <c r="AC65" s="109"/>
+    </row>
+    <row r="66" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="86"/>
+      <c r="J66" s="86"/>
+      <c r="K66" s="86"/>
+      <c r="L66" s="86"/>
+      <c r="M66" s="87"/>
+      <c r="N66" s="88"/>
+      <c r="O66" s="89"/>
+      <c r="P66" s="90"/>
+      <c r="Q66" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="R65" s="92"/>
-      <c r="S65" s="92" t="s">
+      <c r="R66" s="92"/>
+      <c r="S66" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="T65" s="92"/>
-      <c r="U65" s="92"/>
-      <c r="V65" s="92"/>
-      <c r="W65" s="92"/>
-      <c r="X65" s="92"/>
-      <c r="Y65" s="92"/>
-      <c r="Z65" s="92"/>
-      <c r="AA65" s="92"/>
-      <c r="AB65" s="92"/>
-      <c r="AC65" s="90"/>
-    </row>
-    <row r="66" spans="1:29" s="111" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A66" s="102"/>
-      <c r="B66" s="102"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="102"/>
-      <c r="E66" s="112"/>
-      <c r="F66" s="113"/>
-      <c r="G66" s="114"/>
-      <c r="H66" s="115"/>
-      <c r="I66" s="115"/>
-      <c r="J66" s="115"/>
-      <c r="K66" s="115"/>
-      <c r="L66" s="115"/>
-      <c r="M66" s="116"/>
-      <c r="N66" s="91"/>
-      <c r="O66" s="117"/>
-      <c r="P66" s="118"/>
-      <c r="Q66" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="R66" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="S66" s="119"/>
-      <c r="T66" s="119"/>
-      <c r="U66" s="119"/>
-      <c r="V66" s="119"/>
-      <c r="W66" s="119"/>
-      <c r="X66" s="119"/>
-      <c r="Y66" s="119"/>
-      <c r="Z66" s="119"/>
-      <c r="AA66" s="119"/>
-      <c r="AB66" s="119"/>
-      <c r="AC66" s="118"/>
-    </row>
-    <row r="67" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="85"/>
-      <c r="H67" s="86"/>
-      <c r="I67" s="86"/>
-      <c r="J67" s="86"/>
-      <c r="K67" s="86"/>
-      <c r="L67" s="86"/>
-      <c r="M67" s="87"/>
-      <c r="N67" s="88"/>
-      <c r="O67" s="89"/>
-      <c r="P67" s="90"/>
+      <c r="T66" s="92"/>
+      <c r="U66" s="92"/>
+      <c r="V66" s="92"/>
+      <c r="W66" s="92"/>
+      <c r="X66" s="92"/>
+      <c r="Y66" s="92"/>
+      <c r="Z66" s="92"/>
+      <c r="AA66" s="92"/>
+      <c r="AB66" s="92"/>
+      <c r="AC66" s="90"/>
+    </row>
+    <row r="67" spans="1:29" s="111" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A67" s="102"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="113"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="115"/>
+      <c r="I67" s="115"/>
+      <c r="J67" s="115"/>
+      <c r="K67" s="115"/>
+      <c r="L67" s="115"/>
+      <c r="M67" s="116"/>
+      <c r="N67" s="91"/>
+      <c r="O67" s="117"/>
+      <c r="P67" s="118"/>
       <c r="Q67" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R67" s="92"/>
-      <c r="S67" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="T67" s="92"/>
-      <c r="U67" s="92"/>
-      <c r="V67" s="92"/>
-      <c r="W67" s="92"/>
-      <c r="X67" s="92"/>
-      <c r="Y67" s="92"/>
-      <c r="Z67" s="92"/>
-      <c r="AA67" s="92"/>
-      <c r="AB67" s="92"/>
-      <c r="AC67" s="90"/>
-    </row>
-    <row r="68" spans="1:29" s="111" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A68" s="102"/>
-      <c r="B68" s="102"/>
-      <c r="C68" s="102"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="112"/>
-      <c r="F68" s="113"/>
-      <c r="G68" s="114"/>
-      <c r="H68" s="115"/>
-      <c r="I68" s="115"/>
-      <c r="J68" s="115"/>
-      <c r="K68" s="115"/>
-      <c r="L68" s="115"/>
-      <c r="M68" s="116"/>
-      <c r="N68" s="91"/>
-      <c r="O68" s="117"/>
-      <c r="P68" s="118"/>
+      <c r="R67" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="S67" s="119"/>
+      <c r="T67" s="119"/>
+      <c r="U67" s="119"/>
+      <c r="V67" s="119"/>
+      <c r="W67" s="119"/>
+      <c r="X67" s="119"/>
+      <c r="Y67" s="119"/>
+      <c r="Z67" s="119"/>
+      <c r="AA67" s="119"/>
+      <c r="AB67" s="119"/>
+      <c r="AC67" s="118"/>
+    </row>
+    <row r="68" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="86"/>
+      <c r="I68" s="86"/>
+      <c r="J68" s="86"/>
+      <c r="K68" s="86"/>
+      <c r="L68" s="86"/>
+      <c r="M68" s="87"/>
+      <c r="N68" s="88"/>
+      <c r="O68" s="89"/>
+      <c r="P68" s="90"/>
       <c r="Q68" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R68" s="119" t="s">
-        <v>87</v>
-      </c>
-      <c r="S68" s="119"/>
-      <c r="T68" s="119"/>
-      <c r="U68" s="119"/>
-      <c r="V68" s="119"/>
-      <c r="W68" s="119"/>
-      <c r="X68" s="119"/>
-      <c r="Y68" s="119"/>
-      <c r="Z68" s="119"/>
-      <c r="AA68" s="119"/>
-      <c r="AB68" s="119"/>
-      <c r="AC68" s="118"/>
+      <c r="R68" s="92"/>
+      <c r="S68" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="T68" s="92"/>
+      <c r="U68" s="92"/>
+      <c r="V68" s="92"/>
+      <c r="W68" s="92"/>
+      <c r="X68" s="92"/>
+      <c r="Y68" s="92"/>
+      <c r="Z68" s="92"/>
+      <c r="AA68" s="92"/>
+      <c r="AB68" s="92"/>
+      <c r="AC68" s="90"/>
     </row>
     <row r="69" spans="1:29" s="111" customFormat="1" ht="13.5" customHeight="1">
       <c r="A69" s="102"/>
@@ -7061,19 +7068,17 @@
       <c r="Q69" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R69" s="119"/>
-      <c r="S69" s="119" t="s">
-        <v>84</v>
-      </c>
+      <c r="R69" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="S69" s="119"/>
       <c r="T69" s="119"/>
       <c r="U69" s="119"/>
       <c r="V69" s="119"/>
       <c r="W69" s="119"/>
       <c r="X69" s="119"/>
       <c r="Y69" s="119"/>
-      <c r="Z69" s="119" t="s">
-        <v>88</v>
-      </c>
+      <c r="Z69" s="119"/>
       <c r="AA69" s="119"/>
       <c r="AB69" s="119"/>
       <c r="AC69" s="118"/>
@@ -7098,17 +7103,19 @@
       <c r="Q70" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R70" s="119" t="s">
-        <v>85</v>
-      </c>
-      <c r="S70" s="119"/>
+      <c r="R70" s="119"/>
+      <c r="S70" s="119" t="s">
+        <v>84</v>
+      </c>
       <c r="T70" s="119"/>
       <c r="U70" s="119"/>
       <c r="V70" s="119"/>
       <c r="W70" s="119"/>
       <c r="X70" s="119"/>
       <c r="Y70" s="119"/>
-      <c r="Z70" s="119"/>
+      <c r="Z70" s="119" t="s">
+        <v>88</v>
+      </c>
       <c r="AA70" s="119"/>
       <c r="AB70" s="119"/>
       <c r="AC70" s="118"/>
@@ -7118,107 +7125,107 @@
       <c r="B71" s="102"/>
       <c r="C71" s="102"/>
       <c r="D71" s="102"/>
-      <c r="E71" s="120"/>
-      <c r="F71" s="121"/>
-      <c r="G71" s="122"/>
-      <c r="H71" s="123"/>
-      <c r="I71" s="123"/>
-      <c r="J71" s="123"/>
-      <c r="K71" s="123"/>
-      <c r="L71" s="123"/>
-      <c r="M71" s="124"/>
-      <c r="N71" s="100"/>
-      <c r="O71" s="125"/>
-      <c r="P71" s="126"/>
-      <c r="Q71" s="100"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="113"/>
+      <c r="G71" s="114"/>
+      <c r="H71" s="115"/>
+      <c r="I71" s="115"/>
+      <c r="J71" s="115"/>
+      <c r="K71" s="115"/>
+      <c r="L71" s="115"/>
+      <c r="M71" s="116"/>
+      <c r="N71" s="91"/>
+      <c r="O71" s="117"/>
+      <c r="P71" s="118"/>
+      <c r="Q71" s="101" t="s">
+        <v>159</v>
+      </c>
       <c r="R71" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="S71" s="119"/>
+      <c r="T71" s="119"/>
+      <c r="U71" s="119"/>
+      <c r="V71" s="119"/>
+      <c r="W71" s="119"/>
+      <c r="X71" s="119"/>
+      <c r="Y71" s="119"/>
+      <c r="Z71" s="119"/>
+      <c r="AA71" s="119"/>
+      <c r="AB71" s="119"/>
+      <c r="AC71" s="118"/>
+    </row>
+    <row r="72" spans="1:29" s="111" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A72" s="102"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="102"/>
+      <c r="D72" s="102"/>
+      <c r="E72" s="120"/>
+      <c r="F72" s="121"/>
+      <c r="G72" s="122"/>
+      <c r="H72" s="123"/>
+      <c r="I72" s="123"/>
+      <c r="J72" s="123"/>
+      <c r="K72" s="123"/>
+      <c r="L72" s="123"/>
+      <c r="M72" s="124"/>
+      <c r="N72" s="100"/>
+      <c r="O72" s="125"/>
+      <c r="P72" s="126"/>
+      <c r="Q72" s="100"/>
+      <c r="R72" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="S71" s="127"/>
-      <c r="T71" s="127"/>
-      <c r="U71" s="127"/>
-      <c r="V71" s="127"/>
-      <c r="W71" s="127"/>
-      <c r="X71" s="127"/>
-      <c r="Y71" s="127"/>
-      <c r="Z71" s="127"/>
-      <c r="AA71" s="127"/>
-      <c r="AB71" s="127"/>
-      <c r="AC71" s="126"/>
-    </row>
-    <row r="72" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="61">
-        <v>3</v>
-      </c>
-      <c r="F72" s="46"/>
-      <c r="G72" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="55"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="55"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="O72" s="51"/>
-      <c r="P72" s="52"/>
-      <c r="Q72" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="R72" s="53"/>
-      <c r="S72" s="53"/>
-      <c r="T72" s="53"/>
-      <c r="U72" s="53"/>
-      <c r="V72" s="53"/>
-      <c r="W72" s="53"/>
-      <c r="X72" s="53"/>
-      <c r="Y72" s="53"/>
-      <c r="Z72" s="53"/>
-      <c r="AA72" s="53"/>
-      <c r="AB72" s="53"/>
-      <c r="AC72" s="52"/>
+      <c r="S72" s="127"/>
+      <c r="T72" s="127"/>
+      <c r="U72" s="127"/>
+      <c r="V72" s="127"/>
+      <c r="W72" s="127"/>
+      <c r="X72" s="127"/>
+      <c r="Y72" s="127"/>
+      <c r="Z72" s="127"/>
+      <c r="AA72" s="127"/>
+      <c r="AB72" s="127"/>
+      <c r="AC72" s="126"/>
     </row>
     <row r="73" spans="1:29" ht="13.5" customHeight="1">
       <c r="A73" s="28"/>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="46">
+      <c r="E73" s="61">
         <v>3</v>
       </c>
-      <c r="G73" s="54"/>
-      <c r="H73" s="55" t="s">
-        <v>46</v>
-      </c>
+      <c r="F73" s="46"/>
+      <c r="G73" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="H73" s="55"/>
       <c r="I73" s="55"/>
       <c r="J73" s="55"/>
       <c r="K73" s="55"/>
       <c r="L73" s="55"/>
       <c r="M73" s="56"/>
-      <c r="N73" s="88"/>
-      <c r="O73" s="89"/>
-      <c r="P73" s="90"/>
-      <c r="Q73" s="88"/>
-      <c r="R73" s="92"/>
-      <c r="S73" s="92"/>
-      <c r="T73" s="92"/>
-      <c r="U73" s="92"/>
-      <c r="V73" s="92"/>
-      <c r="W73" s="92"/>
-      <c r="X73" s="92"/>
-      <c r="Y73" s="92"/>
-      <c r="Z73" s="92"/>
-      <c r="AA73" s="92"/>
-      <c r="AB73" s="92"/>
-      <c r="AC73" s="90"/>
+      <c r="N73" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="O73" s="51"/>
+      <c r="P73" s="52"/>
+      <c r="Q73" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="R73" s="53"/>
+      <c r="S73" s="53"/>
+      <c r="T73" s="53"/>
+      <c r="U73" s="53"/>
+      <c r="V73" s="53"/>
+      <c r="W73" s="53"/>
+      <c r="X73" s="53"/>
+      <c r="Y73" s="53"/>
+      <c r="Z73" s="53"/>
+      <c r="AA73" s="53"/>
+      <c r="AB73" s="53"/>
+      <c r="AC73" s="52"/>
     </row>
     <row r="74" spans="1:29" ht="13.5" customHeight="1">
       <c r="A74" s="28"/>
@@ -7227,11 +7234,11 @@
       <c r="D74" s="28"/>
       <c r="E74" s="83"/>
       <c r="F74" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G74" s="54"/>
       <c r="H74" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I74" s="55"/>
       <c r="J74" s="55"/>
@@ -7262,11 +7269,11 @@
       <c r="D75" s="28"/>
       <c r="E75" s="83"/>
       <c r="F75" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G75" s="54"/>
       <c r="H75" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I75" s="55"/>
       <c r="J75" s="55"/>
@@ -7297,11 +7304,11 @@
       <c r="D76" s="28"/>
       <c r="E76" s="83"/>
       <c r="F76" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G76" s="54"/>
       <c r="H76" s="55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I76" s="55"/>
       <c r="J76" s="55"/>
@@ -7332,17 +7339,17 @@
       <c r="D77" s="28"/>
       <c r="E77" s="83"/>
       <c r="F77" s="46">
-        <v>7</v>
-      </c>
-      <c r="G77" s="36"/>
-      <c r="H77" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G77" s="54"/>
+      <c r="H77" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="I77" s="55"/>
+      <c r="J77" s="55"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="56"/>
       <c r="N77" s="88"/>
       <c r="O77" s="89"/>
       <c r="P77" s="90"/>
@@ -7367,11 +7374,11 @@
       <c r="D78" s="28"/>
       <c r="E78" s="83"/>
       <c r="F78" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G78" s="36"/>
       <c r="H78" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I78" s="37"/>
       <c r="J78" s="37"/>
@@ -7402,11 +7409,11 @@
       <c r="D79" s="28"/>
       <c r="E79" s="83"/>
       <c r="F79" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G79" s="36"/>
       <c r="H79" s="37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I79" s="37"/>
       <c r="J79" s="37"/>
@@ -7435,119 +7442,148 @@
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
-      <c r="E80" s="71"/>
+      <c r="E80" s="83"/>
       <c r="F80" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G80" s="36"/>
       <c r="H80" s="37" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="I80" s="37"/>
       <c r="J80" s="37"/>
       <c r="K80" s="37"/>
       <c r="L80" s="37"/>
       <c r="M80" s="38"/>
-      <c r="N80" s="97"/>
-      <c r="O80" s="98"/>
-      <c r="P80" s="99"/>
-      <c r="Q80" s="97"/>
-      <c r="R80" s="80"/>
-      <c r="S80" s="80"/>
-      <c r="T80" s="80"/>
-      <c r="U80" s="80"/>
-      <c r="V80" s="80"/>
-      <c r="W80" s="80"/>
-      <c r="X80" s="80"/>
-      <c r="Y80" s="80"/>
-      <c r="Z80" s="80"/>
-      <c r="AA80" s="80"/>
-      <c r="AB80" s="80"/>
-      <c r="AC80" s="99"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="N80" s="88"/>
+      <c r="O80" s="89"/>
+      <c r="P80" s="90"/>
+      <c r="Q80" s="88"/>
+      <c r="R80" s="92"/>
+      <c r="S80" s="92"/>
+      <c r="T80" s="92"/>
+      <c r="U80" s="92"/>
+      <c r="V80" s="92"/>
+      <c r="W80" s="92"/>
+      <c r="X80" s="92"/>
+      <c r="Y80" s="92"/>
+      <c r="Z80" s="92"/>
+      <c r="AA80" s="92"/>
+      <c r="AB80" s="92"/>
+      <c r="AC80" s="90"/>
+    </row>
+    <row r="81" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="71"/>
+      <c r="F81" s="46">
+        <v>10</v>
+      </c>
+      <c r="G81" s="36"/>
+      <c r="H81" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="38"/>
+      <c r="N81" s="97"/>
+      <c r="O81" s="98"/>
+      <c r="P81" s="99"/>
+      <c r="Q81" s="97"/>
+      <c r="R81" s="80"/>
+      <c r="S81" s="80"/>
+      <c r="T81" s="80"/>
+      <c r="U81" s="80"/>
+      <c r="V81" s="80"/>
+      <c r="W81" s="80"/>
+      <c r="X81" s="80"/>
+      <c r="Y81" s="80"/>
+      <c r="Z81" s="80"/>
+      <c r="AA81" s="80"/>
+      <c r="AB81" s="80"/>
+      <c r="AC81" s="99"/>
+    </row>
+    <row r="85" spans="1:29">
       <c r="A85" s="28"/>
       <c r="B85" s="28"/>
-      <c r="C85" s="28" t="s">
-        <v>16</v>
-      </c>
+      <c r="C85" s="28"/>
       <c r="D85" s="28"/>
-      <c r="E85" s="30"/>
-    </row>
-    <row r="86" spans="1:5">
+    </row>
+    <row r="86" spans="1:29">
       <c r="A86" s="28"/>
       <c r="B86" s="28"/>
-      <c r="C86" s="59" t="s">
-        <v>78</v>
+      <c r="C86" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="D86" s="28"/>
-      <c r="E86" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="E86" s="30"/>
+    </row>
+    <row r="87" spans="1:29">
       <c r="A87" s="28"/>
       <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
+      <c r="C87" s="59" t="s">
+        <v>78</v>
+      </c>
       <c r="D87" s="28"/>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="E87" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29">
       <c r="A88" s="28"/>
       <c r="B88" s="28"/>
-      <c r="C88" s="28" t="s">
-        <v>35</v>
-      </c>
+      <c r="C88" s="28"/>
       <c r="D88" s="28"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:29">
       <c r="A89" s="28"/>
       <c r="B89" s="28"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="C89" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="28"/>
+    </row>
+    <row r="90" spans="1:29">
       <c r="A90" s="28"/>
       <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29">
       <c r="A91" s="28"/>
       <c r="B91" s="28"/>
-      <c r="C91" s="28" t="s">
-        <v>0</v>
-      </c>
+      <c r="C91" s="28"/>
       <c r="D91" s="28"/>
-      <c r="E91" s="30"/>
-    </row>
-    <row r="92" spans="1:5">
+    </row>
+    <row r="92" spans="1:29">
       <c r="A92" s="28"/>
       <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
+      <c r="C92" s="28" t="s">
+        <v>0</v>
+      </c>
       <c r="D92" s="28"/>
-      <c r="E92" s="60" t="s">
+      <c r="E92" s="30"/>
+    </row>
+    <row r="93" spans="1:29">
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="60" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="125" spans="5:5">
-      <c r="E125" s="60" t="s">
+    <row r="126" spans="5:5">
+      <c r="E126" s="60" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="28"/>
-      <c r="B133" s="28"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="28"/>
@@ -7708,104 +7744,63 @@
     <row r="160" spans="1:4">
       <c r="A160" s="28"/>
       <c r="B160" s="28"/>
-      <c r="C160" s="28" t="s">
-        <v>1</v>
-      </c>
+      <c r="C160" s="28"/>
       <c r="D160" s="28"/>
     </row>
     <row r="161" spans="1:29">
       <c r="A161" s="28"/>
       <c r="B161" s="28"/>
-      <c r="C161" s="28"/>
+      <c r="C161" s="28" t="s">
+        <v>1</v>
+      </c>
       <c r="D161" s="28"/>
-      <c r="E161" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G161" s="33"/>
-      <c r="H161" s="33"/>
-      <c r="I161" s="33"/>
-      <c r="J161" s="33"/>
-      <c r="K161" s="33"/>
-      <c r="L161" s="34"/>
-      <c r="M161" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="N161" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="O161" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="P161" s="33"/>
-      <c r="Q161" s="34"/>
-      <c r="R161" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="S161" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="T161" s="33"/>
-      <c r="U161" s="33"/>
-      <c r="V161" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="W161" s="33"/>
-      <c r="X161" s="33"/>
-      <c r="Y161" s="33"/>
-      <c r="Z161" s="33"/>
-      <c r="AA161" s="33"/>
-      <c r="AB161" s="33"/>
-      <c r="AC161" s="34"/>
     </row>
     <row r="162" spans="1:29">
       <c r="A162" s="28"/>
       <c r="B162" s="28"/>
       <c r="C162" s="28"/>
       <c r="D162" s="28"/>
-      <c r="E162" s="35">
-        <v>1</v>
-      </c>
-      <c r="F162" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G162" s="37"/>
-      <c r="H162" s="37"/>
-      <c r="I162" s="37"/>
-      <c r="J162" s="37"/>
-      <c r="K162" s="37"/>
-      <c r="L162" s="38"/>
-      <c r="M162" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N162" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="O162" s="128" t="s">
-        <v>97</v>
-      </c>
-      <c r="P162" s="41"/>
-      <c r="Q162" s="42"/>
-      <c r="R162" s="35">
-        <v>16</v>
-      </c>
-      <c r="S162" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="T162" s="44"/>
-      <c r="U162" s="44"/>
-      <c r="V162" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="W162" s="44"/>
-      <c r="X162" s="44"/>
-      <c r="Y162" s="44"/>
-      <c r="Z162" s="44"/>
-      <c r="AA162" s="44"/>
-      <c r="AB162" s="44"/>
-      <c r="AC162" s="45"/>
+      <c r="E162" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G162" s="33"/>
+      <c r="H162" s="33"/>
+      <c r="I162" s="33"/>
+      <c r="J162" s="33"/>
+      <c r="K162" s="33"/>
+      <c r="L162" s="34"/>
+      <c r="M162" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N162" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="O162" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="P162" s="33"/>
+      <c r="Q162" s="34"/>
+      <c r="R162" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="S162" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="T162" s="33"/>
+      <c r="U162" s="33"/>
+      <c r="V162" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="W162" s="33"/>
+      <c r="X162" s="33"/>
+      <c r="Y162" s="33"/>
+      <c r="Z162" s="33"/>
+      <c r="AA162" s="33"/>
+      <c r="AB162" s="33"/>
+      <c r="AC162" s="34"/>
     </row>
     <row r="163" spans="1:29">
       <c r="A163" s="28"/>
@@ -7813,10 +7808,10 @@
       <c r="C163" s="28"/>
       <c r="D163" s="28"/>
       <c r="E163" s="35">
-        <v>2</v>
-      </c>
-      <c r="F163" s="37" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="F163" s="36" t="s">
+        <v>46</v>
       </c>
       <c r="G163" s="37"/>
       <c r="H163" s="37"/>
@@ -7824,23 +7819,27 @@
       <c r="J163" s="37"/>
       <c r="K163" s="37"/>
       <c r="L163" s="38"/>
-      <c r="M163" s="129" t="s">
-        <v>33</v>
+      <c r="M163" s="35" t="s">
+        <v>32</v>
       </c>
       <c r="N163" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="O163" s="40"/>
+      <c r="O163" s="128" t="s">
+        <v>97</v>
+      </c>
       <c r="P163" s="41"/>
       <c r="Q163" s="42"/>
-      <c r="R163" s="35"/>
-      <c r="S163" s="130" t="s">
-        <v>105</v>
+      <c r="R163" s="35">
+        <v>16</v>
+      </c>
+      <c r="S163" s="43" t="s">
+        <v>95</v>
       </c>
       <c r="T163" s="44"/>
       <c r="U163" s="44"/>
       <c r="V163" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W163" s="44"/>
       <c r="X163" s="44"/>
@@ -7856,10 +7855,10 @@
       <c r="C164" s="28"/>
       <c r="D164" s="28"/>
       <c r="E164" s="35">
-        <v>3</v>
-      </c>
-      <c r="F164" s="36" t="s">
-        <v>96</v>
+        <v>2</v>
+      </c>
+      <c r="F164" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="G164" s="37"/>
       <c r="H164" s="37"/>
@@ -7867,27 +7866,23 @@
       <c r="J164" s="37"/>
       <c r="K164" s="37"/>
       <c r="L164" s="38"/>
-      <c r="M164" s="35" t="s">
-        <v>32</v>
+      <c r="M164" s="129" t="s">
+        <v>33</v>
       </c>
       <c r="N164" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="O164" s="128" t="s">
-        <v>97</v>
-      </c>
+      <c r="O164" s="40"/>
       <c r="P164" s="41"/>
       <c r="Q164" s="42"/>
-      <c r="R164" s="35">
-        <v>40</v>
-      </c>
-      <c r="S164" s="43" t="s">
-        <v>95</v>
+      <c r="R164" s="35"/>
+      <c r="S164" s="130" t="s">
+        <v>105</v>
       </c>
       <c r="T164" s="44"/>
       <c r="U164" s="44"/>
       <c r="V164" s="43" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="W164" s="44"/>
       <c r="X164" s="44"/>
@@ -7903,10 +7898,10 @@
       <c r="C165" s="28"/>
       <c r="D165" s="28"/>
       <c r="E165" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F165" s="36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G165" s="37"/>
       <c r="H165" s="37"/>
@@ -7934,7 +7929,7 @@
       <c r="T165" s="44"/>
       <c r="U165" s="44"/>
       <c r="V165" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="W165" s="44"/>
       <c r="X165" s="44"/>
@@ -7950,10 +7945,10 @@
       <c r="C166" s="28"/>
       <c r="D166" s="28"/>
       <c r="E166" s="35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F166" s="36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G166" s="37"/>
       <c r="H166" s="37"/>
@@ -7964,14 +7959,16 @@
       <c r="M166" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="N166" s="39"/>
-      <c r="O166" s="40" t="s">
-        <v>19</v>
+      <c r="N166" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="O166" s="128" t="s">
+        <v>97</v>
       </c>
       <c r="P166" s="41"/>
       <c r="Q166" s="42"/>
       <c r="R166" s="35">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="S166" s="43" t="s">
         <v>95</v>
@@ -7979,7 +7976,7 @@
       <c r="T166" s="44"/>
       <c r="U166" s="44"/>
       <c r="V166" s="43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="W166" s="44"/>
       <c r="X166" s="44"/>
@@ -7995,10 +7992,10 @@
       <c r="C167" s="28"/>
       <c r="D167" s="28"/>
       <c r="E167" s="35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F167" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G167" s="37"/>
       <c r="H167" s="37"/>
@@ -8024,7 +8021,7 @@
       <c r="T167" s="44"/>
       <c r="U167" s="44"/>
       <c r="V167" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="W167" s="44"/>
       <c r="X167" s="44"/>
@@ -8040,10 +8037,10 @@
       <c r="C168" s="28"/>
       <c r="D168" s="28"/>
       <c r="E168" s="35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F168" s="36" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="G168" s="37"/>
       <c r="H168" s="37"/>
@@ -8051,21 +8048,25 @@
       <c r="J168" s="37"/>
       <c r="K168" s="37"/>
       <c r="L168" s="38"/>
-      <c r="M168" s="129" t="s">
-        <v>33</v>
+      <c r="M168" s="35" t="s">
+        <v>32</v>
       </c>
       <c r="N168" s="39"/>
-      <c r="O168" s="40"/>
+      <c r="O168" s="40" t="s">
+        <v>19</v>
+      </c>
       <c r="P168" s="41"/>
       <c r="Q168" s="42"/>
-      <c r="R168" s="35"/>
-      <c r="S168" s="130" t="s">
-        <v>105</v>
+      <c r="R168" s="35">
+        <v>80</v>
+      </c>
+      <c r="S168" s="43" t="s">
+        <v>95</v>
       </c>
       <c r="T168" s="44"/>
       <c r="U168" s="44"/>
       <c r="V168" s="43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="W168" s="44"/>
       <c r="X168" s="44"/>
@@ -8081,44 +8082,40 @@
       <c r="C169" s="28"/>
       <c r="D169" s="28"/>
       <c r="E169" s="35">
-        <v>8</v>
-      </c>
-      <c r="F169" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="G169" s="63"/>
-      <c r="H169" s="63"/>
-      <c r="I169" s="63"/>
-      <c r="J169" s="63"/>
-      <c r="K169" s="63"/>
-      <c r="L169" s="64"/>
-      <c r="M169" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N169" s="65"/>
-      <c r="O169" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="P169" s="67"/>
-      <c r="Q169" s="68"/>
-      <c r="R169" s="35">
-        <v>10</v>
-      </c>
-      <c r="S169" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="T169" s="53"/>
-      <c r="U169" s="53"/>
-      <c r="V169" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="W169" s="53"/>
-      <c r="X169" s="53"/>
-      <c r="Y169" s="53"/>
-      <c r="Z169" s="53"/>
-      <c r="AA169" s="53"/>
-      <c r="AB169" s="53"/>
-      <c r="AC169" s="70"/>
+        <v>7</v>
+      </c>
+      <c r="F169" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G169" s="37"/>
+      <c r="H169" s="37"/>
+      <c r="I169" s="37"/>
+      <c r="J169" s="37"/>
+      <c r="K169" s="37"/>
+      <c r="L169" s="38"/>
+      <c r="M169" s="129" t="s">
+        <v>33</v>
+      </c>
+      <c r="N169" s="39"/>
+      <c r="O169" s="40"/>
+      <c r="P169" s="41"/>
+      <c r="Q169" s="42"/>
+      <c r="R169" s="35"/>
+      <c r="S169" s="130" t="s">
+        <v>105</v>
+      </c>
+      <c r="T169" s="44"/>
+      <c r="U169" s="44"/>
+      <c r="V169" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="W169" s="44"/>
+      <c r="X169" s="44"/>
+      <c r="Y169" s="44"/>
+      <c r="Z169" s="44"/>
+      <c r="AA169" s="44"/>
+      <c r="AB169" s="44"/>
+      <c r="AC169" s="45"/>
     </row>
     <row r="170" spans="1:29">
       <c r="A170" s="28"/>
@@ -8126,44 +8123,44 @@
       <c r="C170" s="28"/>
       <c r="D170" s="28"/>
       <c r="E170" s="35">
-        <v>9</v>
-      </c>
-      <c r="F170" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G170" s="37"/>
-      <c r="H170" s="37"/>
-      <c r="I170" s="37"/>
-      <c r="J170" s="37"/>
-      <c r="K170" s="37"/>
-      <c r="L170" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="F170" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="G170" s="63"/>
+      <c r="H170" s="63"/>
+      <c r="I170" s="63"/>
+      <c r="J170" s="63"/>
+      <c r="K170" s="63"/>
+      <c r="L170" s="64"/>
       <c r="M170" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="N170" s="39"/>
+      <c r="N170" s="65"/>
       <c r="O170" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="P170" s="41"/>
-      <c r="Q170" s="42"/>
+        <v>106</v>
+      </c>
+      <c r="P170" s="67"/>
+      <c r="Q170" s="68"/>
       <c r="R170" s="35">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S170" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="T170" s="44"/>
-      <c r="U170" s="44"/>
-      <c r="V170" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="W170" s="44"/>
-      <c r="X170" s="44"/>
-      <c r="Y170" s="44"/>
-      <c r="Z170" s="44"/>
-      <c r="AA170" s="44"/>
-      <c r="AB170" s="44"/>
-      <c r="AC170" s="45"/>
+      <c r="T170" s="53"/>
+      <c r="U170" s="53"/>
+      <c r="V170" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="W170" s="53"/>
+      <c r="X170" s="53"/>
+      <c r="Y170" s="53"/>
+      <c r="Z170" s="53"/>
+      <c r="AA170" s="53"/>
+      <c r="AB170" s="53"/>
+      <c r="AC170" s="70"/>
     </row>
     <row r="171" spans="1:29">
       <c r="A171" s="28"/>
@@ -8171,10 +8168,10 @@
       <c r="C171" s="28"/>
       <c r="D171" s="28"/>
       <c r="E171" s="35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F171" s="36" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="G171" s="37"/>
       <c r="H171" s="37"/>
@@ -8182,17 +8179,17 @@
       <c r="J171" s="37"/>
       <c r="K171" s="37"/>
       <c r="L171" s="38"/>
-      <c r="M171" s="132" t="s">
-        <v>34</v>
+      <c r="M171" s="35" t="s">
+        <v>32</v>
       </c>
       <c r="N171" s="39"/>
       <c r="O171" s="40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P171" s="41"/>
       <c r="Q171" s="42"/>
       <c r="R171" s="35">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="S171" s="43" t="s">
         <v>95</v>
@@ -8200,7 +8197,7 @@
       <c r="T171" s="44"/>
       <c r="U171" s="44"/>
       <c r="V171" s="43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="W171" s="44"/>
       <c r="X171" s="44"/>
@@ -8210,42 +8207,50 @@
       <c r="AB171" s="44"/>
       <c r="AC171" s="45"/>
     </row>
-    <row r="172" spans="1:29" s="142" customFormat="1">
-      <c r="A172" s="17"/>
-      <c r="B172" s="17"/>
-      <c r="C172" s="17"/>
-      <c r="D172" s="17"/>
-      <c r="E172" s="132"/>
-      <c r="F172" s="133" t="s">
-        <v>224</v>
-      </c>
-      <c r="G172" s="134"/>
-      <c r="H172" s="134"/>
-      <c r="I172" s="134"/>
-      <c r="J172" s="134"/>
-      <c r="K172" s="134"/>
-      <c r="L172" s="135"/>
+    <row r="172" spans="1:29">
+      <c r="A172" s="28"/>
+      <c r="B172" s="28"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="35">
+        <v>10</v>
+      </c>
+      <c r="F172" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G172" s="37"/>
+      <c r="H172" s="37"/>
+      <c r="I172" s="37"/>
+      <c r="J172" s="37"/>
+      <c r="K172" s="37"/>
+      <c r="L172" s="38"/>
       <c r="M172" s="132" t="s">
-        <v>116</v>
-      </c>
-      <c r="N172" s="136"/>
-      <c r="O172" s="137"/>
-      <c r="P172" s="138"/>
-      <c r="Q172" s="139"/>
-      <c r="R172" s="132"/>
-      <c r="S172" s="131"/>
-      <c r="T172" s="140"/>
-      <c r="U172" s="140"/>
-      <c r="V172" s="131" t="s">
-        <v>111</v>
-      </c>
-      <c r="W172" s="140"/>
-      <c r="X172" s="140"/>
-      <c r="Y172" s="140"/>
-      <c r="Z172" s="140"/>
-      <c r="AA172" s="140"/>
-      <c r="AB172" s="140"/>
-      <c r="AC172" s="141"/>
+        <v>34</v>
+      </c>
+      <c r="N172" s="39"/>
+      <c r="O172" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="P172" s="41"/>
+      <c r="Q172" s="42"/>
+      <c r="R172" s="35">
+        <v>200</v>
+      </c>
+      <c r="S172" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="T172" s="44"/>
+      <c r="U172" s="44"/>
+      <c r="V172" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="W172" s="44"/>
+      <c r="X172" s="44"/>
+      <c r="Y172" s="44"/>
+      <c r="Z172" s="44"/>
+      <c r="AA172" s="44"/>
+      <c r="AB172" s="44"/>
+      <c r="AC172" s="45"/>
     </row>
     <row r="173" spans="1:29" s="142" customFormat="1">
       <c r="A173" s="17"/>
@@ -8254,7 +8259,7 @@
       <c r="D173" s="17"/>
       <c r="E173" s="132"/>
       <c r="F173" s="133" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="G173" s="134"/>
       <c r="H173" s="134"/>
@@ -8289,11 +8294,9 @@
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
       <c r="D174" s="17"/>
-      <c r="E174" s="132">
-        <v>11</v>
-      </c>
+      <c r="E174" s="132"/>
       <c r="F174" s="133" t="s">
-        <v>117</v>
+        <v>265</v>
       </c>
       <c r="G174" s="134"/>
       <c r="H174" s="134"/>
@@ -8302,7 +8305,7 @@
       <c r="K174" s="134"/>
       <c r="L174" s="135"/>
       <c r="M174" s="132" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="N174" s="136"/>
       <c r="O174" s="137"/>
@@ -8313,7 +8316,7 @@
       <c r="T174" s="140"/>
       <c r="U174" s="140"/>
       <c r="V174" s="131" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="W174" s="140"/>
       <c r="X174" s="140"/>
@@ -8329,10 +8332,10 @@
       <c r="C175" s="17"/>
       <c r="D175" s="17"/>
       <c r="E175" s="132">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F175" s="133" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G175" s="134"/>
       <c r="H175" s="134"/>
@@ -8352,7 +8355,7 @@
       <c r="T175" s="140"/>
       <c r="U175" s="140"/>
       <c r="V175" s="131" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="W175" s="140"/>
       <c r="X175" s="140"/>
@@ -8368,10 +8371,10 @@
       <c r="C176" s="17"/>
       <c r="D176" s="17"/>
       <c r="E176" s="132">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F176" s="133" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G176" s="134"/>
       <c r="H176" s="134"/>
@@ -8391,7 +8394,7 @@
       <c r="T176" s="140"/>
       <c r="U176" s="140"/>
       <c r="V176" s="131" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W176" s="140"/>
       <c r="X176" s="140"/>
@@ -8407,10 +8410,10 @@
       <c r="C177" s="17"/>
       <c r="D177" s="17"/>
       <c r="E177" s="132">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F177" s="133" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G177" s="134"/>
       <c r="H177" s="134"/>
@@ -8430,7 +8433,7 @@
       <c r="T177" s="140"/>
       <c r="U177" s="140"/>
       <c r="V177" s="131" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="W177" s="140"/>
       <c r="X177" s="140"/>
@@ -8446,10 +8449,10 @@
       <c r="C178" s="17"/>
       <c r="D178" s="17"/>
       <c r="E178" s="132">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F178" s="133" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G178" s="134"/>
       <c r="H178" s="134"/>
@@ -8469,7 +8472,7 @@
       <c r="T178" s="140"/>
       <c r="U178" s="140"/>
       <c r="V178" s="131" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W178" s="140"/>
       <c r="X178" s="140"/>
@@ -8479,130 +8482,136 @@
       <c r="AB178" s="140"/>
       <c r="AC178" s="141"/>
     </row>
-    <row r="179" spans="1:29">
-      <c r="A179" s="28"/>
-      <c r="B179" s="28"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
+    <row r="179" spans="1:29" s="142" customFormat="1">
+      <c r="A179" s="17"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="132">
+        <v>15</v>
+      </c>
+      <c r="F179" s="133" t="s">
+        <v>124</v>
+      </c>
+      <c r="G179" s="134"/>
+      <c r="H179" s="134"/>
+      <c r="I179" s="134"/>
+      <c r="J179" s="134"/>
+      <c r="K179" s="134"/>
+      <c r="L179" s="135"/>
+      <c r="M179" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="N179" s="136"/>
+      <c r="O179" s="137"/>
+      <c r="P179" s="138"/>
+      <c r="Q179" s="139"/>
+      <c r="R179" s="132"/>
+      <c r="S179" s="131"/>
+      <c r="T179" s="140"/>
+      <c r="U179" s="140"/>
+      <c r="V179" s="131" t="s">
+        <v>125</v>
+      </c>
+      <c r="W179" s="140"/>
+      <c r="X179" s="140"/>
+      <c r="Y179" s="140"/>
+      <c r="Z179" s="140"/>
+      <c r="AA179" s="140"/>
+      <c r="AB179" s="140"/>
+      <c r="AC179" s="141"/>
     </row>
     <row r="180" spans="1:29">
       <c r="A180" s="28"/>
       <c r="B180" s="28"/>
-      <c r="C180" s="28" t="s">
-        <v>6</v>
-      </c>
+      <c r="C180" s="28"/>
       <c r="D180" s="28"/>
     </row>
     <row r="181" spans="1:29">
       <c r="A181" s="28"/>
       <c r="B181" s="28"/>
-      <c r="C181" s="28"/>
+      <c r="C181" s="28" t="s">
+        <v>6</v>
+      </c>
       <c r="D181" s="28"/>
-      <c r="E181" s="31" t="s">
+    </row>
+    <row r="182" spans="1:29">
+      <c r="A182" s="28"/>
+      <c r="B182" s="28"/>
+      <c r="C182" s="28"/>
+      <c r="D182" s="28"/>
+      <c r="E182" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F181" s="32" t="s">
+      <c r="F182" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G181" s="33"/>
-      <c r="H181" s="33"/>
-      <c r="I181" s="33"/>
-      <c r="J181" s="33"/>
-      <c r="K181" s="33"/>
-      <c r="L181" s="33"/>
-      <c r="M181" s="34"/>
-      <c r="N181" s="32" t="s">
+      <c r="G182" s="33"/>
+      <c r="H182" s="33"/>
+      <c r="I182" s="33"/>
+      <c r="J182" s="33"/>
+      <c r="K182" s="33"/>
+      <c r="L182" s="33"/>
+      <c r="M182" s="34"/>
+      <c r="N182" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="O181" s="33"/>
-      <c r="P181" s="34"/>
-      <c r="Q181" s="32" t="s">
+      <c r="O182" s="33"/>
+      <c r="P182" s="34"/>
+      <c r="Q182" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="R181" s="33"/>
-      <c r="S181" s="33"/>
-      <c r="T181" s="33"/>
-      <c r="U181" s="33"/>
-      <c r="V181" s="33"/>
-      <c r="W181" s="33"/>
-      <c r="X181" s="33"/>
-      <c r="Y181" s="33"/>
-      <c r="Z181" s="33"/>
-      <c r="AA181" s="33"/>
-      <c r="AB181" s="33"/>
-      <c r="AC181" s="34"/>
-    </row>
-    <row r="182" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A182" s="17"/>
-      <c r="B182" s="17"/>
-      <c r="C182" s="17"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="143">
-        <v>1</v>
-      </c>
-      <c r="F182" s="104"/>
-      <c r="G182" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="H182" s="106"/>
-      <c r="I182" s="106"/>
-      <c r="J182" s="106"/>
-      <c r="K182" s="106"/>
-      <c r="L182" s="106"/>
-      <c r="M182" s="107"/>
-      <c r="N182" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="O182" s="108"/>
-      <c r="P182" s="109"/>
-      <c r="Q182" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="R182" s="110"/>
-      <c r="S182" s="110"/>
-      <c r="T182" s="110"/>
-      <c r="U182" s="110"/>
-      <c r="V182" s="110"/>
-      <c r="W182" s="110"/>
-      <c r="X182" s="110"/>
-      <c r="Y182" s="110"/>
-      <c r="Z182" s="110"/>
-      <c r="AA182" s="110"/>
-      <c r="AB182" s="110"/>
-      <c r="AC182" s="109"/>
+      <c r="R182" s="33"/>
+      <c r="S182" s="33"/>
+      <c r="T182" s="33"/>
+      <c r="U182" s="33"/>
+      <c r="V182" s="33"/>
+      <c r="W182" s="33"/>
+      <c r="X182" s="33"/>
+      <c r="Y182" s="33"/>
+      <c r="Z182" s="33"/>
+      <c r="AA182" s="33"/>
+      <c r="AB182" s="33"/>
+      <c r="AC182" s="34"/>
     </row>
     <row r="183" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
       <c r="A183" s="17"/>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
       <c r="D183" s="17"/>
-      <c r="E183" s="144"/>
-      <c r="F183" s="113"/>
-      <c r="G183" s="114"/>
-      <c r="H183" s="115"/>
-      <c r="I183" s="115"/>
-      <c r="J183" s="115"/>
-      <c r="K183" s="115"/>
-      <c r="L183" s="115"/>
-      <c r="M183" s="116"/>
-      <c r="N183" s="91"/>
-      <c r="O183" s="117"/>
-      <c r="P183" s="118"/>
-      <c r="Q183" s="91"/>
-      <c r="R183" s="119" t="s">
-        <v>170</v>
-      </c>
-      <c r="S183" s="119"/>
-      <c r="T183" s="119"/>
-      <c r="U183" s="119"/>
-      <c r="V183" s="119"/>
-      <c r="W183" s="119"/>
-      <c r="X183" s="119"/>
-      <c r="Y183" s="119"/>
-      <c r="Z183" s="119"/>
-      <c r="AA183" s="119"/>
-      <c r="AB183" s="119"/>
-      <c r="AC183" s="118"/>
+      <c r="E183" s="143">
+        <v>1</v>
+      </c>
+      <c r="F183" s="104"/>
+      <c r="G183" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="H183" s="106"/>
+      <c r="I183" s="106"/>
+      <c r="J183" s="106"/>
+      <c r="K183" s="106"/>
+      <c r="L183" s="106"/>
+      <c r="M183" s="107"/>
+      <c r="N183" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="O183" s="108"/>
+      <c r="P183" s="109"/>
+      <c r="Q183" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="R183" s="110"/>
+      <c r="S183" s="110"/>
+      <c r="T183" s="110"/>
+      <c r="U183" s="110"/>
+      <c r="V183" s="110"/>
+      <c r="W183" s="110"/>
+      <c r="X183" s="110"/>
+      <c r="Y183" s="110"/>
+      <c r="Z183" s="110"/>
+      <c r="AA183" s="110"/>
+      <c r="AB183" s="110"/>
+      <c r="AC183" s="109"/>
     </row>
     <row r="184" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
       <c r="A184" s="17"/>
@@ -8622,10 +8631,10 @@
       <c r="O184" s="117"/>
       <c r="P184" s="118"/>
       <c r="Q184" s="91"/>
-      <c r="R184" s="119"/>
-      <c r="S184" s="119" t="s">
-        <v>127</v>
-      </c>
+      <c r="R184" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="S184" s="119"/>
       <c r="T184" s="119"/>
       <c r="U184" s="119"/>
       <c r="V184" s="119"/>
@@ -8655,10 +8664,10 @@
       <c r="O185" s="117"/>
       <c r="P185" s="118"/>
       <c r="Q185" s="91"/>
-      <c r="R185" s="119" t="s">
-        <v>171</v>
-      </c>
-      <c r="S185" s="119"/>
+      <c r="R185" s="119"/>
+      <c r="S185" s="119" t="s">
+        <v>127</v>
+      </c>
       <c r="T185" s="119"/>
       <c r="U185" s="119"/>
       <c r="V185" s="119"/>
@@ -8670,75 +8679,73 @@
       <c r="AB185" s="119"/>
       <c r="AC185" s="118"/>
     </row>
-    <row r="186" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A186" s="28"/>
-      <c r="B186" s="28"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="28"/>
-      <c r="E186" s="83"/>
-      <c r="F186" s="84"/>
-      <c r="G186" s="85"/>
-      <c r="H186" s="86"/>
-      <c r="I186" s="86"/>
-      <c r="J186" s="86"/>
-      <c r="K186" s="86"/>
-      <c r="L186" s="86"/>
-      <c r="M186" s="87"/>
-      <c r="N186" s="88"/>
-      <c r="O186" s="89"/>
-      <c r="P186" s="90"/>
-      <c r="Q186" s="101" t="s">
+    <row r="186" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A186" s="17"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="17"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="144"/>
+      <c r="F186" s="113"/>
+      <c r="G186" s="114"/>
+      <c r="H186" s="115"/>
+      <c r="I186" s="115"/>
+      <c r="J186" s="115"/>
+      <c r="K186" s="115"/>
+      <c r="L186" s="115"/>
+      <c r="M186" s="116"/>
+      <c r="N186" s="91"/>
+      <c r="O186" s="117"/>
+      <c r="P186" s="118"/>
+      <c r="Q186" s="91"/>
+      <c r="R186" s="119" t="s">
+        <v>171</v>
+      </c>
+      <c r="S186" s="119"/>
+      <c r="T186" s="119"/>
+      <c r="U186" s="119"/>
+      <c r="V186" s="119"/>
+      <c r="W186" s="119"/>
+      <c r="X186" s="119"/>
+      <c r="Y186" s="119"/>
+      <c r="Z186" s="119"/>
+      <c r="AA186" s="119"/>
+      <c r="AB186" s="119"/>
+      <c r="AC186" s="118"/>
+    </row>
+    <row r="187" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A187" s="28"/>
+      <c r="B187" s="28"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="28"/>
+      <c r="E187" s="83"/>
+      <c r="F187" s="84"/>
+      <c r="G187" s="85"/>
+      <c r="H187" s="86"/>
+      <c r="I187" s="86"/>
+      <c r="J187" s="86"/>
+      <c r="K187" s="86"/>
+      <c r="L187" s="86"/>
+      <c r="M187" s="87"/>
+      <c r="N187" s="88"/>
+      <c r="O187" s="89"/>
+      <c r="P187" s="90"/>
+      <c r="Q187" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="R186" s="92"/>
-      <c r="S186" s="92" t="s">
+      <c r="R187" s="92"/>
+      <c r="S187" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="T186" s="92"/>
-      <c r="U186" s="92"/>
-      <c r="V186" s="92"/>
-      <c r="W186" s="92"/>
-      <c r="X186" s="92"/>
-      <c r="Y186" s="92"/>
-      <c r="Z186" s="92"/>
-      <c r="AA186" s="92"/>
-      <c r="AB186" s="92"/>
-      <c r="AC186" s="90"/>
-    </row>
-    <row r="187" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A187" s="17"/>
-      <c r="B187" s="17"/>
-      <c r="C187" s="17"/>
-      <c r="D187" s="17"/>
-      <c r="E187" s="144"/>
-      <c r="F187" s="113"/>
-      <c r="G187" s="114"/>
-      <c r="H187" s="115"/>
-      <c r="I187" s="115"/>
-      <c r="J187" s="115"/>
-      <c r="K187" s="115"/>
-      <c r="L187" s="115"/>
-      <c r="M187" s="116"/>
-      <c r="N187" s="91"/>
-      <c r="O187" s="117"/>
-      <c r="P187" s="118"/>
-      <c r="Q187" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="R187" s="119"/>
-      <c r="S187" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="T187" s="119"/>
-      <c r="U187" s="119"/>
-      <c r="V187" s="119"/>
-      <c r="W187" s="119"/>
-      <c r="X187" s="119"/>
-      <c r="Y187" s="119"/>
-      <c r="Z187" s="119"/>
-      <c r="AA187" s="119"/>
-      <c r="AB187" s="119"/>
-      <c r="AC187" s="118"/>
+      <c r="T187" s="92"/>
+      <c r="U187" s="92"/>
+      <c r="V187" s="92"/>
+      <c r="W187" s="92"/>
+      <c r="X187" s="92"/>
+      <c r="Y187" s="92"/>
+      <c r="Z187" s="92"/>
+      <c r="AA187" s="92"/>
+      <c r="AB187" s="92"/>
+      <c r="AC187" s="90"/>
     </row>
     <row r="188" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
       <c r="A188" s="17"/>
@@ -8761,10 +8768,10 @@
         <v>159</v>
       </c>
       <c r="R188" s="119"/>
-      <c r="S188" s="154"/>
-      <c r="T188" s="119" t="s">
-        <v>135</v>
-      </c>
+      <c r="S188" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="T188" s="119"/>
       <c r="U188" s="119"/>
       <c r="V188" s="119"/>
       <c r="W188" s="119"/>
@@ -8780,142 +8787,142 @@
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
       <c r="D189" s="17"/>
-      <c r="E189" s="145"/>
-      <c r="F189" s="121"/>
-      <c r="G189" s="122"/>
-      <c r="H189" s="123"/>
-      <c r="I189" s="123"/>
-      <c r="J189" s="123"/>
-      <c r="K189" s="123"/>
-      <c r="L189" s="123"/>
-      <c r="M189" s="124"/>
-      <c r="N189" s="100"/>
-      <c r="O189" s="125"/>
-      <c r="P189" s="126"/>
-      <c r="Q189" s="100"/>
-      <c r="R189" s="127"/>
-      <c r="S189" s="146"/>
-      <c r="T189" s="127"/>
-      <c r="U189" s="127"/>
-      <c r="V189" s="127"/>
-      <c r="W189" s="127"/>
-      <c r="X189" s="127"/>
-      <c r="Y189" s="127"/>
-      <c r="Z189" s="127"/>
-      <c r="AA189" s="127"/>
-      <c r="AB189" s="127"/>
-      <c r="AC189" s="126"/>
+      <c r="E189" s="144"/>
+      <c r="F189" s="113"/>
+      <c r="G189" s="114"/>
+      <c r="H189" s="115"/>
+      <c r="I189" s="115"/>
+      <c r="J189" s="115"/>
+      <c r="K189" s="115"/>
+      <c r="L189" s="115"/>
+      <c r="M189" s="116"/>
+      <c r="N189" s="91"/>
+      <c r="O189" s="117"/>
+      <c r="P189" s="118"/>
+      <c r="Q189" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="R189" s="119"/>
+      <c r="S189" s="154"/>
+      <c r="T189" s="119" t="s">
+        <v>135</v>
+      </c>
+      <c r="U189" s="119"/>
+      <c r="V189" s="119"/>
+      <c r="W189" s="119"/>
+      <c r="X189" s="119"/>
+      <c r="Y189" s="119"/>
+      <c r="Z189" s="119"/>
+      <c r="AA189" s="119"/>
+      <c r="AB189" s="119"/>
+      <c r="AC189" s="118"/>
     </row>
     <row r="190" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
       <c r="A190" s="17"/>
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
       <c r="D190" s="17"/>
-      <c r="E190" s="143">
+      <c r="E190" s="145"/>
+      <c r="F190" s="121"/>
+      <c r="G190" s="122"/>
+      <c r="H190" s="123"/>
+      <c r="I190" s="123"/>
+      <c r="J190" s="123"/>
+      <c r="K190" s="123"/>
+      <c r="L190" s="123"/>
+      <c r="M190" s="124"/>
+      <c r="N190" s="100"/>
+      <c r="O190" s="125"/>
+      <c r="P190" s="126"/>
+      <c r="Q190" s="100"/>
+      <c r="R190" s="127"/>
+      <c r="S190" s="146"/>
+      <c r="T190" s="127"/>
+      <c r="U190" s="127"/>
+      <c r="V190" s="127"/>
+      <c r="W190" s="127"/>
+      <c r="X190" s="127"/>
+      <c r="Y190" s="127"/>
+      <c r="Z190" s="127"/>
+      <c r="AA190" s="127"/>
+      <c r="AB190" s="127"/>
+      <c r="AC190" s="126"/>
+    </row>
+    <row r="191" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A191" s="17"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="17"/>
+      <c r="D191" s="17"/>
+      <c r="E191" s="143">
         <v>2</v>
       </c>
-      <c r="F190" s="104">
+      <c r="F191" s="104">
         <v>11</v>
       </c>
-      <c r="G190" s="105" t="s">
+      <c r="G191" s="105" t="s">
         <v>117</v>
       </c>
-      <c r="H190" s="106"/>
-      <c r="I190" s="106"/>
-      <c r="J190" s="106"/>
-      <c r="K190" s="106"/>
-      <c r="L190" s="106"/>
-      <c r="M190" s="107"/>
-      <c r="N190" s="58" t="s">
+      <c r="H191" s="106"/>
+      <c r="I191" s="106"/>
+      <c r="J191" s="106"/>
+      <c r="K191" s="106"/>
+      <c r="L191" s="106"/>
+      <c r="M191" s="107"/>
+      <c r="N191" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="O190" s="108"/>
-      <c r="P190" s="109"/>
-      <c r="Q190" s="58" t="s">
+      <c r="O191" s="108"/>
+      <c r="P191" s="109"/>
+      <c r="Q191" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="R190" s="110"/>
-      <c r="S190" s="110"/>
-      <c r="T190" s="110"/>
-      <c r="U190" s="110"/>
-      <c r="V190" s="110"/>
-      <c r="W190" s="110"/>
-      <c r="X190" s="110"/>
-      <c r="Y190" s="110"/>
-      <c r="Z190" s="110"/>
-      <c r="AA190" s="110"/>
-      <c r="AB190" s="110"/>
-      <c r="AC190" s="109"/>
-    </row>
-    <row r="191" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A191" s="28"/>
-      <c r="B191" s="28"/>
-      <c r="C191" s="28"/>
-      <c r="D191" s="28"/>
-      <c r="E191" s="83"/>
-      <c r="F191" s="84"/>
-      <c r="G191" s="85"/>
-      <c r="H191" s="86"/>
-      <c r="I191" s="86"/>
-      <c r="J191" s="86"/>
-      <c r="K191" s="86"/>
-      <c r="L191" s="86"/>
-      <c r="M191" s="87"/>
-      <c r="N191" s="88"/>
-      <c r="O191" s="89"/>
-      <c r="P191" s="90"/>
-      <c r="Q191" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="R191" s="92"/>
-      <c r="S191" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="T191" s="92"/>
-      <c r="U191" s="92"/>
-      <c r="V191" s="92"/>
-      <c r="W191" s="92"/>
-      <c r="X191" s="92"/>
-      <c r="Y191" s="92"/>
-      <c r="Z191" s="92"/>
-      <c r="AA191" s="92"/>
-      <c r="AB191" s="92"/>
-      <c r="AC191" s="90"/>
+      <c r="R191" s="110"/>
+      <c r="S191" s="110"/>
+      <c r="T191" s="110"/>
+      <c r="U191" s="110"/>
+      <c r="V191" s="110"/>
+      <c r="W191" s="110"/>
+      <c r="X191" s="110"/>
+      <c r="Y191" s="110"/>
+      <c r="Z191" s="110"/>
+      <c r="AA191" s="110"/>
+      <c r="AB191" s="110"/>
+      <c r="AC191" s="109"/>
     </row>
     <row r="192" spans="1:29" ht="13.5" customHeight="1">
       <c r="A192" s="28"/>
       <c r="B192" s="28"/>
       <c r="C192" s="28"/>
       <c r="D192" s="28"/>
-      <c r="E192" s="112"/>
-      <c r="F192" s="113"/>
-      <c r="G192" s="114"/>
-      <c r="H192" s="115"/>
-      <c r="I192" s="115"/>
-      <c r="J192" s="115"/>
-      <c r="K192" s="115"/>
-      <c r="L192" s="115"/>
-      <c r="M192" s="116"/>
-      <c r="N192" s="91"/>
-      <c r="O192" s="117"/>
-      <c r="P192" s="118"/>
+      <c r="E192" s="83"/>
+      <c r="F192" s="84"/>
+      <c r="G192" s="85"/>
+      <c r="H192" s="86"/>
+      <c r="I192" s="86"/>
+      <c r="J192" s="86"/>
+      <c r="K192" s="86"/>
+      <c r="L192" s="86"/>
+      <c r="M192" s="87"/>
+      <c r="N192" s="88"/>
+      <c r="O192" s="89"/>
+      <c r="P192" s="90"/>
       <c r="Q192" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="R192" s="119" t="s">
-        <v>148</v>
-      </c>
-      <c r="S192" s="119"/>
-      <c r="T192" s="119"/>
-      <c r="U192" s="119"/>
-      <c r="V192" s="119"/>
-      <c r="W192" s="119"/>
-      <c r="X192" s="119"/>
-      <c r="Y192" s="119"/>
-      <c r="Z192" s="119"/>
-      <c r="AA192" s="119"/>
-      <c r="AB192" s="119"/>
-      <c r="AC192" s="118"/>
+        <v>68</v>
+      </c>
+      <c r="R192" s="92"/>
+      <c r="S192" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="T192" s="92"/>
+      <c r="U192" s="92"/>
+      <c r="V192" s="92"/>
+      <c r="W192" s="92"/>
+      <c r="X192" s="92"/>
+      <c r="Y192" s="92"/>
+      <c r="Z192" s="92"/>
+      <c r="AA192" s="92"/>
+      <c r="AB192" s="92"/>
+      <c r="AC192" s="90"/>
     </row>
     <row r="193" spans="1:29" ht="13.5" customHeight="1">
       <c r="A193" s="28"/>
@@ -8937,10 +8944,10 @@
       <c r="Q193" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R193" s="119"/>
-      <c r="S193" s="119" t="s">
-        <v>149</v>
-      </c>
+      <c r="R193" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="S193" s="119"/>
       <c r="T193" s="119"/>
       <c r="U193" s="119"/>
       <c r="V193" s="119"/>
@@ -8973,10 +8980,10 @@
         <v>159</v>
       </c>
       <c r="R194" s="119"/>
-      <c r="S194" s="119"/>
-      <c r="T194" s="119" t="s">
-        <v>150</v>
-      </c>
+      <c r="S194" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="T194" s="119"/>
       <c r="U194" s="119"/>
       <c r="V194" s="119"/>
       <c r="W194" s="119"/>
@@ -9008,10 +9015,10 @@
         <v>159</v>
       </c>
       <c r="R195" s="119"/>
-      <c r="S195" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="T195" s="119"/>
+      <c r="S195" s="119"/>
+      <c r="T195" s="119" t="s">
+        <v>150</v>
+      </c>
       <c r="U195" s="119"/>
       <c r="V195" s="119"/>
       <c r="W195" s="119"/>
@@ -9044,7 +9051,7 @@
       </c>
       <c r="R196" s="119"/>
       <c r="S196" s="119" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="T196" s="119"/>
       <c r="U196" s="119"/>
@@ -9074,18 +9081,18 @@
       <c r="N197" s="91"/>
       <c r="O197" s="117"/>
       <c r="P197" s="118"/>
-      <c r="Q197" s="91"/>
-      <c r="R197" s="119" t="s">
-        <v>152</v>
-      </c>
-      <c r="S197" s="119"/>
+      <c r="Q197" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="R197" s="119"/>
+      <c r="S197" s="119" t="s">
+        <v>154</v>
+      </c>
       <c r="T197" s="119"/>
       <c r="U197" s="119"/>
       <c r="V197" s="119"/>
       <c r="W197" s="119"/>
-      <c r="X197" s="119" t="s">
-        <v>142</v>
-      </c>
+      <c r="X197" s="119"/>
       <c r="Y197" s="119"/>
       <c r="Z197" s="119"/>
       <c r="AA197" s="119"/>
@@ -9110,15 +9117,17 @@
       <c r="O198" s="117"/>
       <c r="P198" s="118"/>
       <c r="Q198" s="91"/>
-      <c r="R198" s="119"/>
-      <c r="S198" s="119" t="s">
-        <v>268</v>
-      </c>
+      <c r="R198" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="S198" s="119"/>
       <c r="T198" s="119"/>
       <c r="U198" s="119"/>
       <c r="V198" s="119"/>
       <c r="W198" s="119"/>
-      <c r="X198" s="119"/>
+      <c r="X198" s="119" t="s">
+        <v>142</v>
+      </c>
       <c r="Y198" s="119"/>
       <c r="Z198" s="119"/>
       <c r="AA198" s="119"/>
@@ -9144,10 +9153,10 @@
       <c r="P199" s="118"/>
       <c r="Q199" s="91"/>
       <c r="R199" s="119"/>
-      <c r="S199" s="119"/>
-      <c r="T199" s="119" t="s">
-        <v>153</v>
-      </c>
+      <c r="S199" s="119" t="s">
+        <v>268</v>
+      </c>
+      <c r="T199" s="119"/>
       <c r="U199" s="119"/>
       <c r="V199" s="119"/>
       <c r="W199" s="119"/>
@@ -9177,10 +9186,10 @@
       <c r="P200" s="118"/>
       <c r="Q200" s="91"/>
       <c r="R200" s="119"/>
-      <c r="S200" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="T200" s="119"/>
+      <c r="S200" s="119"/>
+      <c r="T200" s="119" t="s">
+        <v>153</v>
+      </c>
       <c r="U200" s="119"/>
       <c r="V200" s="119"/>
       <c r="W200" s="119"/>
@@ -9196,35 +9205,33 @@
       <c r="B201" s="28"/>
       <c r="C201" s="28"/>
       <c r="D201" s="28"/>
-      <c r="E201" s="83"/>
-      <c r="F201" s="84"/>
-      <c r="G201" s="85"/>
-      <c r="H201" s="86"/>
-      <c r="I201" s="86"/>
-      <c r="J201" s="86"/>
-      <c r="K201" s="86"/>
-      <c r="L201" s="86"/>
-      <c r="M201" s="87"/>
-      <c r="N201" s="88"/>
-      <c r="O201" s="89"/>
-      <c r="P201" s="90"/>
-      <c r="Q201" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="R201" s="92"/>
-      <c r="S201" s="92" t="s">
-        <v>241</v>
-      </c>
-      <c r="T201" s="92"/>
-      <c r="U201" s="92"/>
-      <c r="V201" s="92"/>
-      <c r="W201" s="92"/>
-      <c r="X201" s="92"/>
-      <c r="Y201" s="92"/>
-      <c r="Z201" s="92"/>
-      <c r="AA201" s="92"/>
-      <c r="AB201" s="92"/>
-      <c r="AC201" s="90"/>
+      <c r="E201" s="112"/>
+      <c r="F201" s="113"/>
+      <c r="G201" s="114"/>
+      <c r="H201" s="115"/>
+      <c r="I201" s="115"/>
+      <c r="J201" s="115"/>
+      <c r="K201" s="115"/>
+      <c r="L201" s="115"/>
+      <c r="M201" s="116"/>
+      <c r="N201" s="91"/>
+      <c r="O201" s="117"/>
+      <c r="P201" s="118"/>
+      <c r="Q201" s="91"/>
+      <c r="R201" s="119"/>
+      <c r="S201" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="T201" s="119"/>
+      <c r="U201" s="119"/>
+      <c r="V201" s="119"/>
+      <c r="W201" s="119"/>
+      <c r="X201" s="119"/>
+      <c r="Y201" s="119"/>
+      <c r="Z201" s="119"/>
+      <c r="AA201" s="119"/>
+      <c r="AB201" s="119"/>
+      <c r="AC201" s="118"/>
     </row>
     <row r="202" spans="1:29" ht="13.5" customHeight="1">
       <c r="A202" s="28"/>
@@ -9244,12 +9251,12 @@
       <c r="O202" s="89"/>
       <c r="P202" s="90"/>
       <c r="Q202" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="R202" s="92" t="s">
-        <v>240</v>
-      </c>
-      <c r="S202" s="92"/>
+        <v>68</v>
+      </c>
+      <c r="R202" s="92"/>
+      <c r="S202" s="92" t="s">
+        <v>241</v>
+      </c>
       <c r="T202" s="92"/>
       <c r="U202" s="92"/>
       <c r="V202" s="92"/>
@@ -9261,40 +9268,40 @@
       <c r="AB202" s="92"/>
       <c r="AC202" s="90"/>
     </row>
-    <row r="203" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A203" s="17"/>
-      <c r="B203" s="17"/>
-      <c r="C203" s="17"/>
-      <c r="D203" s="17"/>
-      <c r="E203" s="144"/>
-      <c r="F203" s="113"/>
-      <c r="G203" s="114"/>
-      <c r="H203" s="115"/>
-      <c r="I203" s="115"/>
-      <c r="J203" s="115"/>
-      <c r="K203" s="115"/>
-      <c r="L203" s="115"/>
-      <c r="M203" s="116"/>
-      <c r="N203" s="91"/>
-      <c r="O203" s="117"/>
-      <c r="P203" s="118"/>
+    <row r="203" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A203" s="28"/>
+      <c r="B203" s="28"/>
+      <c r="C203" s="28"/>
+      <c r="D203" s="28"/>
+      <c r="E203" s="83"/>
+      <c r="F203" s="84"/>
+      <c r="G203" s="85"/>
+      <c r="H203" s="86"/>
+      <c r="I203" s="86"/>
+      <c r="J203" s="86"/>
+      <c r="K203" s="86"/>
+      <c r="L203" s="86"/>
+      <c r="M203" s="87"/>
+      <c r="N203" s="88"/>
+      <c r="O203" s="89"/>
+      <c r="P203" s="90"/>
       <c r="Q203" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R203" s="119" t="s">
-        <v>118</v>
-      </c>
-      <c r="S203" s="119"/>
-      <c r="T203" s="119"/>
-      <c r="U203" s="119"/>
-      <c r="V203" s="119"/>
-      <c r="W203" s="119"/>
-      <c r="X203" s="119"/>
-      <c r="Y203" s="119"/>
-      <c r="Z203" s="119"/>
-      <c r="AA203" s="119"/>
-      <c r="AB203" s="119"/>
-      <c r="AC203" s="118"/>
+      <c r="R203" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="S203" s="92"/>
+      <c r="T203" s="92"/>
+      <c r="U203" s="92"/>
+      <c r="V203" s="92"/>
+      <c r="W203" s="92"/>
+      <c r="X203" s="92"/>
+      <c r="Y203" s="92"/>
+      <c r="Z203" s="92"/>
+      <c r="AA203" s="92"/>
+      <c r="AB203" s="92"/>
+      <c r="AC203" s="90"/>
     </row>
     <row r="204" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
       <c r="A204" s="17"/>
@@ -9316,10 +9323,10 @@
       <c r="Q204" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R204" s="119"/>
-      <c r="S204" s="119" t="s">
-        <v>157</v>
-      </c>
+      <c r="R204" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="S204" s="119"/>
       <c r="T204" s="119"/>
       <c r="U204" s="119"/>
       <c r="V204" s="119"/>
@@ -9353,7 +9360,7 @@
       </c>
       <c r="R205" s="119"/>
       <c r="S205" s="119" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="T205" s="119"/>
       <c r="U205" s="119"/>
@@ -9387,10 +9394,10 @@
         <v>159</v>
       </c>
       <c r="R206" s="119"/>
-      <c r="S206" s="119"/>
-      <c r="T206" s="119" t="s">
-        <v>84</v>
-      </c>
+      <c r="S206" s="119" t="s">
+        <v>130</v>
+      </c>
+      <c r="T206" s="119"/>
       <c r="U206" s="119"/>
       <c r="V206" s="119"/>
       <c r="W206" s="119"/>
@@ -9423,15 +9430,15 @@
       </c>
       <c r="R207" s="119"/>
       <c r="S207" s="119"/>
-      <c r="T207" s="119"/>
+      <c r="T207" s="119" t="s">
+        <v>84</v>
+      </c>
       <c r="U207" s="119"/>
       <c r="V207" s="119"/>
       <c r="W207" s="119"/>
       <c r="X207" s="119"/>
       <c r="Y207" s="119"/>
-      <c r="Z207" s="119" t="s">
-        <v>143</v>
-      </c>
+      <c r="Z207" s="119"/>
       <c r="AA207" s="119"/>
       <c r="AB207" s="119"/>
       <c r="AC207" s="118"/>
@@ -9457,16 +9464,16 @@
         <v>159</v>
       </c>
       <c r="R208" s="119"/>
-      <c r="S208" s="119" t="s">
-        <v>85</v>
-      </c>
+      <c r="S208" s="119"/>
       <c r="T208" s="119"/>
       <c r="U208" s="119"/>
       <c r="V208" s="119"/>
       <c r="W208" s="119"/>
       <c r="X208" s="119"/>
       <c r="Y208" s="119"/>
-      <c r="Z208" s="119"/>
+      <c r="Z208" s="119" t="s">
+        <v>143</v>
+      </c>
       <c r="AA208" s="119"/>
       <c r="AB208" s="119"/>
       <c r="AC208" s="118"/>
@@ -9491,19 +9498,17 @@
       <c r="Q209" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R209" s="119" t="s">
-        <v>141</v>
-      </c>
-      <c r="S209" s="119"/>
+      <c r="R209" s="119"/>
+      <c r="S209" s="119" t="s">
+        <v>85</v>
+      </c>
       <c r="T209" s="119"/>
       <c r="U209" s="119"/>
       <c r="V209" s="119"/>
       <c r="W209" s="119"/>
       <c r="X209" s="119"/>
       <c r="Y209" s="119"/>
-      <c r="Z209" s="119" t="s">
-        <v>144</v>
-      </c>
+      <c r="Z209" s="119"/>
       <c r="AA209" s="119"/>
       <c r="AB209" s="119"/>
       <c r="AC209" s="118"/>
@@ -9525,9 +9530,11 @@
       <c r="N210" s="91"/>
       <c r="O210" s="117"/>
       <c r="P210" s="118"/>
-      <c r="Q210" s="91"/>
+      <c r="Q210" s="101" t="s">
+        <v>159</v>
+      </c>
       <c r="R210" s="119" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="S210" s="119"/>
       <c r="T210" s="119"/>
@@ -9536,80 +9543,80 @@
       <c r="W210" s="119"/>
       <c r="X210" s="119"/>
       <c r="Y210" s="119"/>
-      <c r="Z210" s="119"/>
+      <c r="Z210" s="119" t="s">
+        <v>144</v>
+      </c>
       <c r="AA210" s="119"/>
       <c r="AB210" s="119"/>
       <c r="AC210" s="118"/>
     </row>
-    <row r="211" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A211" s="28"/>
-      <c r="B211" s="28"/>
-      <c r="C211" s="28"/>
-      <c r="D211" s="28"/>
-      <c r="E211" s="83"/>
-      <c r="F211" s="84"/>
-      <c r="G211" s="85"/>
-      <c r="H211" s="86"/>
-      <c r="I211" s="86"/>
-      <c r="J211" s="86"/>
-      <c r="K211" s="86"/>
-      <c r="L211" s="86"/>
-      <c r="M211" s="87"/>
-      <c r="N211" s="88"/>
-      <c r="O211" s="89"/>
-      <c r="P211" s="90"/>
-      <c r="Q211" s="101" t="s">
+    <row r="211" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A211" s="17"/>
+      <c r="B211" s="17"/>
+      <c r="C211" s="17"/>
+      <c r="D211" s="17"/>
+      <c r="E211" s="144"/>
+      <c r="F211" s="113"/>
+      <c r="G211" s="114"/>
+      <c r="H211" s="115"/>
+      <c r="I211" s="115"/>
+      <c r="J211" s="115"/>
+      <c r="K211" s="115"/>
+      <c r="L211" s="115"/>
+      <c r="M211" s="116"/>
+      <c r="N211" s="91"/>
+      <c r="O211" s="117"/>
+      <c r="P211" s="118"/>
+      <c r="Q211" s="91"/>
+      <c r="R211" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="S211" s="119"/>
+      <c r="T211" s="119"/>
+      <c r="U211" s="119"/>
+      <c r="V211" s="119"/>
+      <c r="W211" s="119"/>
+      <c r="X211" s="119"/>
+      <c r="Y211" s="119"/>
+      <c r="Z211" s="119"/>
+      <c r="AA211" s="119"/>
+      <c r="AB211" s="119"/>
+      <c r="AC211" s="118"/>
+    </row>
+    <row r="212" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A212" s="28"/>
+      <c r="B212" s="28"/>
+      <c r="C212" s="28"/>
+      <c r="D212" s="28"/>
+      <c r="E212" s="83"/>
+      <c r="F212" s="84"/>
+      <c r="G212" s="85"/>
+      <c r="H212" s="86"/>
+      <c r="I212" s="86"/>
+      <c r="J212" s="86"/>
+      <c r="K212" s="86"/>
+      <c r="L212" s="86"/>
+      <c r="M212" s="87"/>
+      <c r="N212" s="88"/>
+      <c r="O212" s="89"/>
+      <c r="P212" s="90"/>
+      <c r="Q212" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="R211" s="92"/>
-      <c r="S211" s="92" t="s">
+      <c r="R212" s="92"/>
+      <c r="S212" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="T211" s="92"/>
-      <c r="U211" s="92"/>
-      <c r="V211" s="92"/>
-      <c r="W211" s="92"/>
-      <c r="X211" s="92"/>
-      <c r="Y211" s="92"/>
-      <c r="Z211" s="92"/>
-      <c r="AA211" s="92"/>
-      <c r="AB211" s="92"/>
-      <c r="AC211" s="90"/>
-    </row>
-    <row r="212" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A212" s="17"/>
-      <c r="B212" s="17"/>
-      <c r="C212" s="17"/>
-      <c r="D212" s="17"/>
-      <c r="E212" s="144"/>
-      <c r="F212" s="113"/>
-      <c r="G212" s="114"/>
-      <c r="H212" s="115"/>
-      <c r="I212" s="115"/>
-      <c r="J212" s="115"/>
-      <c r="K212" s="115"/>
-      <c r="L212" s="115"/>
-      <c r="M212" s="116"/>
-      <c r="N212" s="91"/>
-      <c r="O212" s="117"/>
-      <c r="P212" s="118"/>
-      <c r="Q212" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="R212" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S212" s="119"/>
-      <c r="T212" s="119"/>
-      <c r="U212" s="119"/>
-      <c r="V212" s="119"/>
-      <c r="W212" s="119"/>
+      <c r="T212" s="92"/>
+      <c r="U212" s="92"/>
+      <c r="V212" s="92"/>
+      <c r="W212" s="92"/>
       <c r="X212" s="92"/>
       <c r="Y212" s="92"/>
       <c r="Z212" s="92"/>
       <c r="AA212" s="92"/>
-      <c r="AB212" s="119"/>
-      <c r="AC212" s="118"/>
+      <c r="AB212" s="92"/>
+      <c r="AC212" s="90"/>
     </row>
     <row r="213" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
       <c r="A213" s="17"/>
@@ -9631,10 +9638,10 @@
       <c r="Q213" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R213" s="154"/>
-      <c r="S213" s="119" t="s">
-        <v>175</v>
-      </c>
+      <c r="R213" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="S213" s="119"/>
       <c r="T213" s="119"/>
       <c r="U213" s="119"/>
       <c r="V213" s="119"/>
@@ -9663,19 +9670,21 @@
       <c r="N214" s="91"/>
       <c r="O214" s="117"/>
       <c r="P214" s="118"/>
-      <c r="Q214" s="91"/>
-      <c r="R214" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="S214" s="119"/>
+      <c r="Q214" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="R214" s="154"/>
+      <c r="S214" s="119" t="s">
+        <v>175</v>
+      </c>
       <c r="T214" s="119"/>
       <c r="U214" s="119"/>
       <c r="V214" s="119"/>
       <c r="W214" s="119"/>
-      <c r="X214" s="119"/>
-      <c r="Y214" s="119"/>
-      <c r="Z214" s="119"/>
-      <c r="AA214" s="119"/>
+      <c r="X214" s="92"/>
+      <c r="Y214" s="92"/>
+      <c r="Z214" s="92"/>
+      <c r="AA214" s="92"/>
       <c r="AB214" s="119"/>
       <c r="AC214" s="118"/>
     </row>
@@ -9697,7 +9706,9 @@
       <c r="O215" s="117"/>
       <c r="P215" s="118"/>
       <c r="Q215" s="91"/>
-      <c r="R215" s="119"/>
+      <c r="R215" s="119" t="s">
+        <v>125</v>
+      </c>
       <c r="S215" s="119"/>
       <c r="T215" s="119"/>
       <c r="U215" s="119"/>
@@ -9715,111 +9726,107 @@
       <c r="B216" s="17"/>
       <c r="C216" s="17"/>
       <c r="D216" s="17"/>
-      <c r="E216" s="143">
+      <c r="E216" s="144"/>
+      <c r="F216" s="113"/>
+      <c r="G216" s="114"/>
+      <c r="H216" s="115"/>
+      <c r="I216" s="115"/>
+      <c r="J216" s="115"/>
+      <c r="K216" s="115"/>
+      <c r="L216" s="115"/>
+      <c r="M216" s="116"/>
+      <c r="N216" s="91"/>
+      <c r="O216" s="117"/>
+      <c r="P216" s="118"/>
+      <c r="Q216" s="91"/>
+      <c r="R216" s="119"/>
+      <c r="S216" s="119"/>
+      <c r="T216" s="119"/>
+      <c r="U216" s="119"/>
+      <c r="V216" s="119"/>
+      <c r="W216" s="119"/>
+      <c r="X216" s="119"/>
+      <c r="Y216" s="119"/>
+      <c r="Z216" s="119"/>
+      <c r="AA216" s="119"/>
+      <c r="AB216" s="119"/>
+      <c r="AC216" s="118"/>
+    </row>
+    <row r="217" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A217" s="17"/>
+      <c r="B217" s="17"/>
+      <c r="C217" s="17"/>
+      <c r="D217" s="17"/>
+      <c r="E217" s="143">
         <v>3</v>
       </c>
-      <c r="F216" s="104">
+      <c r="F217" s="104">
         <v>13</v>
       </c>
-      <c r="G216" s="105" t="s">
+      <c r="G217" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="H216" s="106"/>
-      <c r="I216" s="106"/>
-      <c r="J216" s="106"/>
-      <c r="K216" s="106"/>
-      <c r="L216" s="106"/>
-      <c r="M216" s="107"/>
-      <c r="N216" s="58" t="s">
+      <c r="H217" s="106"/>
+      <c r="I217" s="106"/>
+      <c r="J217" s="106"/>
+      <c r="K217" s="106"/>
+      <c r="L217" s="106"/>
+      <c r="M217" s="107"/>
+      <c r="N217" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="O216" s="108"/>
-      <c r="P216" s="109"/>
-      <c r="Q216" s="58" t="s">
+      <c r="O217" s="108"/>
+      <c r="P217" s="109"/>
+      <c r="Q217" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="R216" s="110"/>
-      <c r="S216" s="110"/>
-      <c r="T216" s="110"/>
-      <c r="U216" s="110"/>
-      <c r="V216" s="110"/>
-      <c r="W216" s="110"/>
-      <c r="X216" s="110"/>
-      <c r="Y216" s="110"/>
-      <c r="Z216" s="110"/>
-      <c r="AA216" s="110"/>
-      <c r="AB216" s="110"/>
-      <c r="AC216" s="109"/>
-    </row>
-    <row r="217" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A217" s="28"/>
-      <c r="B217" s="28"/>
-      <c r="C217" s="28"/>
-      <c r="D217" s="28"/>
-      <c r="E217" s="83"/>
-      <c r="F217" s="84"/>
-      <c r="G217" s="85"/>
-      <c r="H217" s="86"/>
-      <c r="I217" s="86"/>
-      <c r="J217" s="86"/>
-      <c r="K217" s="86"/>
-      <c r="L217" s="86"/>
-      <c r="M217" s="87"/>
-      <c r="N217" s="88"/>
-      <c r="O217" s="89"/>
-      <c r="P217" s="90"/>
-      <c r="Q217" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="R217" s="92"/>
-      <c r="S217" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="T217" s="92"/>
-      <c r="U217" s="92"/>
-      <c r="V217" s="92"/>
-      <c r="W217" s="92"/>
-      <c r="X217" s="92"/>
-      <c r="Y217" s="92"/>
-      <c r="Z217" s="92"/>
-      <c r="AA217" s="92"/>
-      <c r="AB217" s="92"/>
-      <c r="AC217" s="90"/>
+      <c r="R217" s="110"/>
+      <c r="S217" s="110"/>
+      <c r="T217" s="110"/>
+      <c r="U217" s="110"/>
+      <c r="V217" s="110"/>
+      <c r="W217" s="110"/>
+      <c r="X217" s="110"/>
+      <c r="Y217" s="110"/>
+      <c r="Z217" s="110"/>
+      <c r="AA217" s="110"/>
+      <c r="AB217" s="110"/>
+      <c r="AC217" s="109"/>
     </row>
     <row r="218" spans="1:29" ht="13.5" customHeight="1">
       <c r="A218" s="28"/>
       <c r="B218" s="28"/>
       <c r="C218" s="28"/>
       <c r="D218" s="28"/>
-      <c r="E218" s="112"/>
-      <c r="F218" s="113"/>
-      <c r="G218" s="114"/>
-      <c r="H218" s="115"/>
-      <c r="I218" s="115"/>
-      <c r="J218" s="115"/>
-      <c r="K218" s="115"/>
-      <c r="L218" s="115"/>
-      <c r="M218" s="116"/>
-      <c r="N218" s="91"/>
-      <c r="O218" s="117"/>
-      <c r="P218" s="118"/>
+      <c r="E218" s="83"/>
+      <c r="F218" s="84"/>
+      <c r="G218" s="85"/>
+      <c r="H218" s="86"/>
+      <c r="I218" s="86"/>
+      <c r="J218" s="86"/>
+      <c r="K218" s="86"/>
+      <c r="L218" s="86"/>
+      <c r="M218" s="87"/>
+      <c r="N218" s="88"/>
+      <c r="O218" s="89"/>
+      <c r="P218" s="90"/>
       <c r="Q218" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="R218" s="119" t="s">
-        <v>148</v>
-      </c>
-      <c r="S218" s="119"/>
-      <c r="T218" s="119"/>
-      <c r="U218" s="119"/>
-      <c r="V218" s="119"/>
-      <c r="W218" s="119"/>
-      <c r="X218" s="119"/>
-      <c r="Y218" s="119"/>
-      <c r="Z218" s="119"/>
-      <c r="AA218" s="119"/>
-      <c r="AB218" s="119"/>
-      <c r="AC218" s="118"/>
+        <v>68</v>
+      </c>
+      <c r="R218" s="92"/>
+      <c r="S218" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="T218" s="92"/>
+      <c r="U218" s="92"/>
+      <c r="V218" s="92"/>
+      <c r="W218" s="92"/>
+      <c r="X218" s="92"/>
+      <c r="Y218" s="92"/>
+      <c r="Z218" s="92"/>
+      <c r="AA218" s="92"/>
+      <c r="AB218" s="92"/>
+      <c r="AC218" s="90"/>
     </row>
     <row r="219" spans="1:29" ht="13.5" customHeight="1">
       <c r="A219" s="28"/>
@@ -9841,10 +9848,10 @@
       <c r="Q219" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R219" s="119"/>
-      <c r="S219" s="119" t="s">
-        <v>149</v>
-      </c>
+      <c r="R219" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="S219" s="119"/>
       <c r="T219" s="119"/>
       <c r="U219" s="119"/>
       <c r="V219" s="119"/>
@@ -9877,10 +9884,10 @@
         <v>159</v>
       </c>
       <c r="R220" s="119"/>
-      <c r="S220" s="119"/>
-      <c r="T220" s="119" t="s">
-        <v>150</v>
-      </c>
+      <c r="S220" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="T220" s="119"/>
       <c r="U220" s="119"/>
       <c r="V220" s="119"/>
       <c r="W220" s="119"/>
@@ -9912,10 +9919,10 @@
         <v>159</v>
       </c>
       <c r="R221" s="119"/>
-      <c r="S221" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="T221" s="119"/>
+      <c r="S221" s="119"/>
+      <c r="T221" s="119" t="s">
+        <v>150</v>
+      </c>
       <c r="U221" s="119"/>
       <c r="V221" s="119"/>
       <c r="W221" s="119"/>
@@ -9948,7 +9955,7 @@
       </c>
       <c r="R222" s="119"/>
       <c r="S222" s="119" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="T222" s="119"/>
       <c r="U222" s="119"/>
@@ -9978,18 +9985,18 @@
       <c r="N223" s="91"/>
       <c r="O223" s="117"/>
       <c r="P223" s="118"/>
-      <c r="Q223" s="91"/>
-      <c r="R223" s="119" t="s">
-        <v>152</v>
-      </c>
-      <c r="S223" s="119"/>
+      <c r="Q223" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="R223" s="119"/>
+      <c r="S223" s="119" t="s">
+        <v>160</v>
+      </c>
       <c r="T223" s="119"/>
       <c r="U223" s="119"/>
       <c r="V223" s="119"/>
       <c r="W223" s="119"/>
-      <c r="X223" s="119" t="s">
-        <v>161</v>
-      </c>
+      <c r="X223" s="119"/>
       <c r="Y223" s="119"/>
       <c r="Z223" s="119"/>
       <c r="AA223" s="119"/>
@@ -10014,15 +10021,17 @@
       <c r="O224" s="117"/>
       <c r="P224" s="118"/>
       <c r="Q224" s="91"/>
-      <c r="R224" s="119"/>
-      <c r="S224" s="119" t="s">
-        <v>268</v>
-      </c>
+      <c r="R224" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="S224" s="119"/>
       <c r="T224" s="119"/>
       <c r="U224" s="119"/>
       <c r="V224" s="119"/>
       <c r="W224" s="119"/>
-      <c r="X224" s="119"/>
+      <c r="X224" s="119" t="s">
+        <v>161</v>
+      </c>
       <c r="Y224" s="119"/>
       <c r="Z224" s="119"/>
       <c r="AA224" s="119"/>
@@ -10048,10 +10057,10 @@
       <c r="P225" s="118"/>
       <c r="Q225" s="91"/>
       <c r="R225" s="119"/>
-      <c r="S225" s="119"/>
-      <c r="T225" s="119" t="s">
-        <v>153</v>
-      </c>
+      <c r="S225" s="119" t="s">
+        <v>268</v>
+      </c>
+      <c r="T225" s="119"/>
       <c r="U225" s="119"/>
       <c r="V225" s="119"/>
       <c r="W225" s="119"/>
@@ -10081,10 +10090,10 @@
       <c r="P226" s="118"/>
       <c r="Q226" s="91"/>
       <c r="R226" s="119"/>
-      <c r="S226" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="T226" s="119"/>
+      <c r="S226" s="119"/>
+      <c r="T226" s="119" t="s">
+        <v>153</v>
+      </c>
       <c r="U226" s="119"/>
       <c r="V226" s="119"/>
       <c r="W226" s="119"/>
@@ -10100,35 +10109,33 @@
       <c r="B227" s="28"/>
       <c r="C227" s="28"/>
       <c r="D227" s="28"/>
-      <c r="E227" s="83"/>
-      <c r="F227" s="84"/>
-      <c r="G227" s="85"/>
-      <c r="H227" s="86"/>
-      <c r="I227" s="86"/>
-      <c r="J227" s="86"/>
-      <c r="K227" s="86"/>
-      <c r="L227" s="86"/>
-      <c r="M227" s="87"/>
-      <c r="N227" s="88"/>
-      <c r="O227" s="89"/>
-      <c r="P227" s="90"/>
-      <c r="Q227" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="R227" s="92"/>
-      <c r="S227" s="92" t="s">
-        <v>242</v>
-      </c>
-      <c r="T227" s="92"/>
-      <c r="U227" s="92"/>
-      <c r="V227" s="92"/>
-      <c r="W227" s="92"/>
-      <c r="X227" s="92"/>
-      <c r="Y227" s="92"/>
-      <c r="Z227" s="92"/>
-      <c r="AA227" s="92"/>
-      <c r="AB227" s="92"/>
-      <c r="AC227" s="90"/>
+      <c r="E227" s="112"/>
+      <c r="F227" s="113"/>
+      <c r="G227" s="114"/>
+      <c r="H227" s="115"/>
+      <c r="I227" s="115"/>
+      <c r="J227" s="115"/>
+      <c r="K227" s="115"/>
+      <c r="L227" s="115"/>
+      <c r="M227" s="116"/>
+      <c r="N227" s="91"/>
+      <c r="O227" s="117"/>
+      <c r="P227" s="118"/>
+      <c r="Q227" s="91"/>
+      <c r="R227" s="119"/>
+      <c r="S227" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="T227" s="119"/>
+      <c r="U227" s="119"/>
+      <c r="V227" s="119"/>
+      <c r="W227" s="119"/>
+      <c r="X227" s="119"/>
+      <c r="Y227" s="119"/>
+      <c r="Z227" s="119"/>
+      <c r="AA227" s="119"/>
+      <c r="AB227" s="119"/>
+      <c r="AC227" s="118"/>
     </row>
     <row r="228" spans="1:29" ht="13.5" customHeight="1">
       <c r="A228" s="28"/>
@@ -10148,12 +10155,12 @@
       <c r="O228" s="89"/>
       <c r="P228" s="90"/>
       <c r="Q228" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="R228" s="92" t="s">
-        <v>240</v>
-      </c>
-      <c r="S228" s="92"/>
+        <v>68</v>
+      </c>
+      <c r="R228" s="92"/>
+      <c r="S228" s="92" t="s">
+        <v>242</v>
+      </c>
       <c r="T228" s="92"/>
       <c r="U228" s="92"/>
       <c r="V228" s="92"/>
@@ -10165,40 +10172,40 @@
       <c r="AB228" s="92"/>
       <c r="AC228" s="90"/>
     </row>
-    <row r="229" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A229" s="17"/>
-      <c r="B229" s="17"/>
-      <c r="C229" s="17"/>
-      <c r="D229" s="17"/>
-      <c r="E229" s="144"/>
-      <c r="F229" s="113"/>
-      <c r="G229" s="114"/>
-      <c r="H229" s="115"/>
-      <c r="I229" s="115"/>
-      <c r="J229" s="115"/>
-      <c r="K229" s="115"/>
-      <c r="L229" s="115"/>
-      <c r="M229" s="116"/>
-      <c r="N229" s="91"/>
-      <c r="O229" s="117"/>
-      <c r="P229" s="118"/>
+    <row r="229" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A229" s="28"/>
+      <c r="B229" s="28"/>
+      <c r="C229" s="28"/>
+      <c r="D229" s="28"/>
+      <c r="E229" s="83"/>
+      <c r="F229" s="84"/>
+      <c r="G229" s="85"/>
+      <c r="H229" s="86"/>
+      <c r="I229" s="86"/>
+      <c r="J229" s="86"/>
+      <c r="K229" s="86"/>
+      <c r="L229" s="86"/>
+      <c r="M229" s="87"/>
+      <c r="N229" s="88"/>
+      <c r="O229" s="89"/>
+      <c r="P229" s="90"/>
       <c r="Q229" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R229" s="119" t="s">
-        <v>132</v>
-      </c>
-      <c r="S229" s="119"/>
-      <c r="T229" s="119"/>
-      <c r="U229" s="119"/>
-      <c r="V229" s="119"/>
-      <c r="W229" s="119"/>
-      <c r="X229" s="119"/>
-      <c r="Y229" s="119"/>
-      <c r="Z229" s="119"/>
-      <c r="AA229" s="119"/>
-      <c r="AB229" s="119"/>
-      <c r="AC229" s="118"/>
+      <c r="R229" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="S229" s="92"/>
+      <c r="T229" s="92"/>
+      <c r="U229" s="92"/>
+      <c r="V229" s="92"/>
+      <c r="W229" s="92"/>
+      <c r="X229" s="92"/>
+      <c r="Y229" s="92"/>
+      <c r="Z229" s="92"/>
+      <c r="AA229" s="92"/>
+      <c r="AB229" s="92"/>
+      <c r="AC229" s="90"/>
     </row>
     <row r="230" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
       <c r="A230" s="17"/>
@@ -10220,10 +10227,10 @@
       <c r="Q230" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R230" s="119"/>
-      <c r="S230" s="119" t="s">
-        <v>162</v>
-      </c>
+      <c r="R230" s="119" t="s">
+        <v>132</v>
+      </c>
+      <c r="S230" s="119"/>
       <c r="T230" s="119"/>
       <c r="U230" s="119"/>
       <c r="V230" s="119"/>
@@ -10257,7 +10264,7 @@
       </c>
       <c r="R231" s="119"/>
       <c r="S231" s="119" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="T231" s="119"/>
       <c r="U231" s="119"/>
@@ -10291,10 +10298,10 @@
         <v>159</v>
       </c>
       <c r="R232" s="119"/>
-      <c r="S232" s="119"/>
-      <c r="T232" s="119" t="s">
-        <v>84</v>
-      </c>
+      <c r="S232" s="119" t="s">
+        <v>130</v>
+      </c>
+      <c r="T232" s="119"/>
       <c r="U232" s="119"/>
       <c r="V232" s="119"/>
       <c r="W232" s="119"/>
@@ -10327,15 +10334,15 @@
       </c>
       <c r="R233" s="119"/>
       <c r="S233" s="119"/>
-      <c r="T233" s="119"/>
+      <c r="T233" s="119" t="s">
+        <v>84</v>
+      </c>
       <c r="U233" s="119"/>
       <c r="V233" s="119"/>
       <c r="W233" s="119"/>
       <c r="X233" s="119"/>
       <c r="Y233" s="119"/>
-      <c r="Z233" s="119" t="s">
-        <v>164</v>
-      </c>
+      <c r="Z233" s="119"/>
       <c r="AA233" s="119"/>
       <c r="AB233" s="119"/>
       <c r="AC233" s="118"/>
@@ -10361,16 +10368,16 @@
         <v>159</v>
       </c>
       <c r="R234" s="119"/>
-      <c r="S234" s="119" t="s">
-        <v>85</v>
-      </c>
+      <c r="S234" s="119"/>
       <c r="T234" s="119"/>
       <c r="U234" s="119"/>
       <c r="V234" s="119"/>
       <c r="W234" s="119"/>
       <c r="X234" s="119"/>
       <c r="Y234" s="119"/>
-      <c r="Z234" s="119"/>
+      <c r="Z234" s="119" t="s">
+        <v>164</v>
+      </c>
       <c r="AA234" s="119"/>
       <c r="AB234" s="119"/>
       <c r="AC234" s="118"/>
@@ -10395,19 +10402,17 @@
       <c r="Q235" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R235" s="119" t="s">
-        <v>141</v>
-      </c>
-      <c r="S235" s="119"/>
+      <c r="R235" s="119"/>
+      <c r="S235" s="119" t="s">
+        <v>85</v>
+      </c>
       <c r="T235" s="119"/>
       <c r="U235" s="119"/>
       <c r="V235" s="119"/>
       <c r="W235" s="119"/>
       <c r="X235" s="119"/>
       <c r="Y235" s="119"/>
-      <c r="Z235" s="119" t="s">
-        <v>165</v>
-      </c>
+      <c r="Z235" s="119"/>
       <c r="AA235" s="119"/>
       <c r="AB235" s="119"/>
       <c r="AC235" s="118"/>
@@ -10429,9 +10434,11 @@
       <c r="N236" s="91"/>
       <c r="O236" s="117"/>
       <c r="P236" s="118"/>
-      <c r="Q236" s="91"/>
+      <c r="Q236" s="101" t="s">
+        <v>159</v>
+      </c>
       <c r="R236" s="119" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="S236" s="119"/>
       <c r="T236" s="119"/>
@@ -10440,80 +10447,80 @@
       <c r="W236" s="119"/>
       <c r="X236" s="119"/>
       <c r="Y236" s="119"/>
-      <c r="Z236" s="119"/>
+      <c r="Z236" s="119" t="s">
+        <v>165</v>
+      </c>
       <c r="AA236" s="119"/>
       <c r="AB236" s="119"/>
       <c r="AC236" s="118"/>
     </row>
-    <row r="237" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A237" s="28"/>
-      <c r="B237" s="28"/>
-      <c r="C237" s="28"/>
-      <c r="D237" s="28"/>
-      <c r="E237" s="83"/>
-      <c r="F237" s="84"/>
-      <c r="G237" s="85"/>
-      <c r="H237" s="86"/>
-      <c r="I237" s="86"/>
-      <c r="J237" s="86"/>
-      <c r="K237" s="86"/>
-      <c r="L237" s="86"/>
-      <c r="M237" s="87"/>
-      <c r="N237" s="88"/>
-      <c r="O237" s="89"/>
-      <c r="P237" s="90"/>
-      <c r="Q237" s="101" t="s">
+    <row r="237" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A237" s="17"/>
+      <c r="B237" s="17"/>
+      <c r="C237" s="17"/>
+      <c r="D237" s="17"/>
+      <c r="E237" s="144"/>
+      <c r="F237" s="113"/>
+      <c r="G237" s="114"/>
+      <c r="H237" s="115"/>
+      <c r="I237" s="115"/>
+      <c r="J237" s="115"/>
+      <c r="K237" s="115"/>
+      <c r="L237" s="115"/>
+      <c r="M237" s="116"/>
+      <c r="N237" s="91"/>
+      <c r="O237" s="117"/>
+      <c r="P237" s="118"/>
+      <c r="Q237" s="91"/>
+      <c r="R237" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="S237" s="119"/>
+      <c r="T237" s="119"/>
+      <c r="U237" s="119"/>
+      <c r="V237" s="119"/>
+      <c r="W237" s="119"/>
+      <c r="X237" s="119"/>
+      <c r="Y237" s="119"/>
+      <c r="Z237" s="119"/>
+      <c r="AA237" s="119"/>
+      <c r="AB237" s="119"/>
+      <c r="AC237" s="118"/>
+    </row>
+    <row r="238" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A238" s="28"/>
+      <c r="B238" s="28"/>
+      <c r="C238" s="28"/>
+      <c r="D238" s="28"/>
+      <c r="E238" s="83"/>
+      <c r="F238" s="84"/>
+      <c r="G238" s="85"/>
+      <c r="H238" s="86"/>
+      <c r="I238" s="86"/>
+      <c r="J238" s="86"/>
+      <c r="K238" s="86"/>
+      <c r="L238" s="86"/>
+      <c r="M238" s="87"/>
+      <c r="N238" s="88"/>
+      <c r="O238" s="89"/>
+      <c r="P238" s="90"/>
+      <c r="Q238" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="R237" s="92"/>
-      <c r="S237" s="92" t="s">
+      <c r="R238" s="92"/>
+      <c r="S238" s="92" t="s">
         <v>239</v>
       </c>
-      <c r="T237" s="92"/>
-      <c r="U237" s="92"/>
-      <c r="V237" s="92"/>
-      <c r="W237" s="92"/>
-      <c r="X237" s="92"/>
-      <c r="Y237" s="92"/>
-      <c r="Z237" s="92"/>
-      <c r="AA237" s="92"/>
-      <c r="AB237" s="92"/>
-      <c r="AC237" s="90"/>
-    </row>
-    <row r="238" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A238" s="17"/>
-      <c r="B238" s="17"/>
-      <c r="C238" s="17"/>
-      <c r="D238" s="17"/>
-      <c r="E238" s="144"/>
-      <c r="F238" s="113"/>
-      <c r="G238" s="114"/>
-      <c r="H238" s="115"/>
-      <c r="I238" s="115"/>
-      <c r="J238" s="115"/>
-      <c r="K238" s="115"/>
-      <c r="L238" s="115"/>
-      <c r="M238" s="116"/>
-      <c r="N238" s="91"/>
-      <c r="O238" s="117"/>
-      <c r="P238" s="118"/>
-      <c r="Q238" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="R238" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S238" s="119"/>
-      <c r="T238" s="119"/>
-      <c r="U238" s="119"/>
-      <c r="V238" s="119"/>
-      <c r="W238" s="119"/>
+      <c r="T238" s="92"/>
+      <c r="U238" s="92"/>
+      <c r="V238" s="92"/>
+      <c r="W238" s="92"/>
       <c r="X238" s="92"/>
       <c r="Y238" s="92"/>
       <c r="Z238" s="92"/>
       <c r="AA238" s="92"/>
-      <c r="AB238" s="119"/>
-      <c r="AC238" s="118"/>
+      <c r="AB238" s="92"/>
+      <c r="AC238" s="90"/>
     </row>
     <row r="239" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
       <c r="A239" s="17"/>
@@ -10535,10 +10542,10 @@
       <c r="Q239" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R239" s="154"/>
-      <c r="S239" s="119" t="s">
-        <v>175</v>
-      </c>
+      <c r="R239" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="S239" s="119"/>
       <c r="T239" s="119"/>
       <c r="U239" s="119"/>
       <c r="V239" s="119"/>
@@ -10567,19 +10574,21 @@
       <c r="N240" s="91"/>
       <c r="O240" s="117"/>
       <c r="P240" s="118"/>
-      <c r="Q240" s="91"/>
-      <c r="R240" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="S240" s="119"/>
+      <c r="Q240" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="R240" s="154"/>
+      <c r="S240" s="119" t="s">
+        <v>175</v>
+      </c>
       <c r="T240" s="119"/>
       <c r="U240" s="119"/>
       <c r="V240" s="119"/>
       <c r="W240" s="119"/>
-      <c r="X240" s="119"/>
-      <c r="Y240" s="119"/>
-      <c r="Z240" s="119"/>
-      <c r="AA240" s="119"/>
+      <c r="X240" s="92"/>
+      <c r="Y240" s="92"/>
+      <c r="Z240" s="92"/>
+      <c r="AA240" s="92"/>
       <c r="AB240" s="119"/>
       <c r="AC240" s="118"/>
     </row>
@@ -10601,7 +10610,9 @@
       <c r="O241" s="117"/>
       <c r="P241" s="118"/>
       <c r="Q241" s="91"/>
-      <c r="R241" s="119"/>
+      <c r="R241" s="119" t="s">
+        <v>125</v>
+      </c>
       <c r="S241" s="119"/>
       <c r="T241" s="119"/>
       <c r="U241" s="119"/>
@@ -10614,116 +10625,112 @@
       <c r="AB241" s="119"/>
       <c r="AC241" s="118"/>
     </row>
-    <row r="242" spans="1:29" s="111" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A242" s="102"/>
-      <c r="B242" s="102"/>
-      <c r="C242" s="102"/>
-      <c r="D242" s="102"/>
-      <c r="E242" s="143">
+    <row r="242" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A242" s="17"/>
+      <c r="B242" s="17"/>
+      <c r="C242" s="17"/>
+      <c r="D242" s="17"/>
+      <c r="E242" s="144"/>
+      <c r="F242" s="113"/>
+      <c r="G242" s="114"/>
+      <c r="H242" s="115"/>
+      <c r="I242" s="115"/>
+      <c r="J242" s="115"/>
+      <c r="K242" s="115"/>
+      <c r="L242" s="115"/>
+      <c r="M242" s="116"/>
+      <c r="N242" s="91"/>
+      <c r="O242" s="117"/>
+      <c r="P242" s="118"/>
+      <c r="Q242" s="91"/>
+      <c r="R242" s="119"/>
+      <c r="S242" s="119"/>
+      <c r="T242" s="119"/>
+      <c r="U242" s="119"/>
+      <c r="V242" s="119"/>
+      <c r="W242" s="119"/>
+      <c r="X242" s="119"/>
+      <c r="Y242" s="119"/>
+      <c r="Z242" s="119"/>
+      <c r="AA242" s="119"/>
+      <c r="AB242" s="119"/>
+      <c r="AC242" s="118"/>
+    </row>
+    <row r="243" spans="1:29" s="111" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A243" s="102"/>
+      <c r="B243" s="102"/>
+      <c r="C243" s="102"/>
+      <c r="D243" s="102"/>
+      <c r="E243" s="143">
         <v>4</v>
       </c>
-      <c r="F242" s="104">
+      <c r="F243" s="104">
         <v>12</v>
       </c>
-      <c r="G242" s="105" t="s">
+      <c r="G243" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="H242" s="106"/>
-      <c r="I242" s="106"/>
-      <c r="J242" s="106"/>
-      <c r="K242" s="106"/>
-      <c r="L242" s="106"/>
-      <c r="M242" s="107"/>
-      <c r="N242" s="58" t="s">
+      <c r="H243" s="106"/>
+      <c r="I243" s="106"/>
+      <c r="J243" s="106"/>
+      <c r="K243" s="106"/>
+      <c r="L243" s="106"/>
+      <c r="M243" s="107"/>
+      <c r="N243" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="O242" s="108"/>
-      <c r="P242" s="109"/>
-      <c r="Q242" s="58" t="s">
+      <c r="O243" s="108"/>
+      <c r="P243" s="109"/>
+      <c r="Q243" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="R242" s="110"/>
-      <c r="S242" s="110"/>
-      <c r="T242" s="110"/>
-      <c r="U242" s="110"/>
-      <c r="V242" s="110"/>
-      <c r="W242" s="110"/>
-      <c r="X242" s="110"/>
-      <c r="Y242" s="110"/>
-      <c r="Z242" s="110"/>
-      <c r="AA242" s="110"/>
-      <c r="AB242" s="110"/>
-      <c r="AC242" s="109"/>
-    </row>
-    <row r="243" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A243" s="28"/>
-      <c r="B243" s="28"/>
-      <c r="C243" s="28"/>
-      <c r="D243" s="28"/>
-      <c r="E243" s="83"/>
-      <c r="F243" s="84"/>
-      <c r="G243" s="85"/>
-      <c r="H243" s="86"/>
-      <c r="I243" s="86"/>
-      <c r="J243" s="86"/>
-      <c r="K243" s="86"/>
-      <c r="L243" s="86"/>
-      <c r="M243" s="87"/>
-      <c r="N243" s="88"/>
-      <c r="O243" s="89"/>
-      <c r="P243" s="90"/>
-      <c r="Q243" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="R243" s="92"/>
-      <c r="S243" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="T243" s="92"/>
-      <c r="U243" s="92"/>
-      <c r="V243" s="92"/>
-      <c r="W243" s="92"/>
-      <c r="X243" s="92"/>
-      <c r="Y243" s="92"/>
-      <c r="Z243" s="92"/>
-      <c r="AA243" s="92"/>
-      <c r="AB243" s="92"/>
-      <c r="AC243" s="90"/>
+      <c r="R243" s="110"/>
+      <c r="S243" s="110"/>
+      <c r="T243" s="110"/>
+      <c r="U243" s="110"/>
+      <c r="V243" s="110"/>
+      <c r="W243" s="110"/>
+      <c r="X243" s="110"/>
+      <c r="Y243" s="110"/>
+      <c r="Z243" s="110"/>
+      <c r="AA243" s="110"/>
+      <c r="AB243" s="110"/>
+      <c r="AC243" s="109"/>
     </row>
     <row r="244" spans="1:29" ht="13.5" customHeight="1">
       <c r="A244" s="28"/>
       <c r="B244" s="28"/>
       <c r="C244" s="28"/>
       <c r="D244" s="28"/>
-      <c r="E244" s="112"/>
-      <c r="F244" s="113"/>
-      <c r="G244" s="114"/>
-      <c r="H244" s="115"/>
-      <c r="I244" s="115"/>
-      <c r="J244" s="115"/>
-      <c r="K244" s="115"/>
-      <c r="L244" s="115"/>
-      <c r="M244" s="116"/>
-      <c r="N244" s="91"/>
-      <c r="O244" s="117"/>
-      <c r="P244" s="118"/>
+      <c r="E244" s="83"/>
+      <c r="F244" s="84"/>
+      <c r="G244" s="85"/>
+      <c r="H244" s="86"/>
+      <c r="I244" s="86"/>
+      <c r="J244" s="86"/>
+      <c r="K244" s="86"/>
+      <c r="L244" s="86"/>
+      <c r="M244" s="87"/>
+      <c r="N244" s="88"/>
+      <c r="O244" s="89"/>
+      <c r="P244" s="90"/>
       <c r="Q244" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="R244" s="119" t="s">
-        <v>148</v>
-      </c>
-      <c r="S244" s="119"/>
-      <c r="T244" s="119"/>
-      <c r="U244" s="119"/>
-      <c r="V244" s="119"/>
-      <c r="W244" s="119"/>
-      <c r="X244" s="119"/>
-      <c r="Y244" s="119"/>
-      <c r="Z244" s="119"/>
-      <c r="AA244" s="119"/>
-      <c r="AB244" s="119"/>
-      <c r="AC244" s="118"/>
+        <v>68</v>
+      </c>
+      <c r="R244" s="92"/>
+      <c r="S244" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="T244" s="92"/>
+      <c r="U244" s="92"/>
+      <c r="V244" s="92"/>
+      <c r="W244" s="92"/>
+      <c r="X244" s="92"/>
+      <c r="Y244" s="92"/>
+      <c r="Z244" s="92"/>
+      <c r="AA244" s="92"/>
+      <c r="AB244" s="92"/>
+      <c r="AC244" s="90"/>
     </row>
     <row r="245" spans="1:29" ht="13.5" customHeight="1">
       <c r="A245" s="28"/>
@@ -10745,10 +10752,10 @@
       <c r="Q245" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R245" s="119"/>
-      <c r="S245" s="119" t="s">
-        <v>149</v>
-      </c>
+      <c r="R245" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="S245" s="119"/>
       <c r="T245" s="119"/>
       <c r="U245" s="119"/>
       <c r="V245" s="119"/>
@@ -10781,10 +10788,10 @@
         <v>159</v>
       </c>
       <c r="R246" s="119"/>
-      <c r="S246" s="119"/>
-      <c r="T246" s="119" t="s">
-        <v>150</v>
-      </c>
+      <c r="S246" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="T246" s="119"/>
       <c r="U246" s="119"/>
       <c r="V246" s="119"/>
       <c r="W246" s="119"/>
@@ -10816,10 +10823,10 @@
         <v>159</v>
       </c>
       <c r="R247" s="119"/>
-      <c r="S247" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="T247" s="119"/>
+      <c r="S247" s="119"/>
+      <c r="T247" s="119" t="s">
+        <v>150</v>
+      </c>
       <c r="U247" s="119"/>
       <c r="V247" s="119"/>
       <c r="W247" s="119"/>
@@ -10852,7 +10859,7 @@
       </c>
       <c r="R248" s="119"/>
       <c r="S248" s="119" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="T248" s="119"/>
       <c r="U248" s="119"/>
@@ -10882,18 +10889,18 @@
       <c r="N249" s="91"/>
       <c r="O249" s="117"/>
       <c r="P249" s="118"/>
-      <c r="Q249" s="91"/>
-      <c r="R249" s="119" t="s">
-        <v>152</v>
-      </c>
-      <c r="S249" s="119"/>
+      <c r="Q249" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="R249" s="119"/>
+      <c r="S249" s="119" t="s">
+        <v>160</v>
+      </c>
       <c r="T249" s="119"/>
       <c r="U249" s="119"/>
       <c r="V249" s="119"/>
       <c r="W249" s="119"/>
-      <c r="X249" s="119" t="s">
-        <v>138</v>
-      </c>
+      <c r="X249" s="119"/>
       <c r="Y249" s="119"/>
       <c r="Z249" s="119"/>
       <c r="AA249" s="119"/>
@@ -10918,15 +10925,17 @@
       <c r="O250" s="117"/>
       <c r="P250" s="118"/>
       <c r="Q250" s="91"/>
-      <c r="R250" s="119"/>
-      <c r="S250" s="119" t="s">
-        <v>268</v>
-      </c>
+      <c r="R250" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="S250" s="119"/>
       <c r="T250" s="119"/>
       <c r="U250" s="119"/>
       <c r="V250" s="119"/>
       <c r="W250" s="119"/>
-      <c r="X250" s="119"/>
+      <c r="X250" s="119" t="s">
+        <v>138</v>
+      </c>
       <c r="Y250" s="119"/>
       <c r="Z250" s="119"/>
       <c r="AA250" s="119"/>
@@ -10952,10 +10961,10 @@
       <c r="P251" s="118"/>
       <c r="Q251" s="91"/>
       <c r="R251" s="119"/>
-      <c r="S251" s="119"/>
-      <c r="T251" s="119" t="s">
-        <v>153</v>
-      </c>
+      <c r="S251" s="119" t="s">
+        <v>268</v>
+      </c>
+      <c r="T251" s="119"/>
       <c r="U251" s="119"/>
       <c r="V251" s="119"/>
       <c r="W251" s="119"/>
@@ -10985,10 +10994,10 @@
       <c r="P252" s="118"/>
       <c r="Q252" s="91"/>
       <c r="R252" s="119"/>
-      <c r="S252" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="T252" s="119"/>
+      <c r="S252" s="119"/>
+      <c r="T252" s="119" t="s">
+        <v>153</v>
+      </c>
       <c r="U252" s="119"/>
       <c r="V252" s="119"/>
       <c r="W252" s="119"/>
@@ -11004,35 +11013,33 @@
       <c r="B253" s="28"/>
       <c r="C253" s="28"/>
       <c r="D253" s="28"/>
-      <c r="E253" s="83"/>
-      <c r="F253" s="84"/>
-      <c r="G253" s="85"/>
-      <c r="H253" s="86"/>
-      <c r="I253" s="86"/>
-      <c r="J253" s="86"/>
-      <c r="K253" s="86"/>
-      <c r="L253" s="86"/>
-      <c r="M253" s="87"/>
-      <c r="N253" s="88"/>
-      <c r="O253" s="89"/>
-      <c r="P253" s="90"/>
-      <c r="Q253" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="R253" s="92"/>
-      <c r="S253" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="T253" s="92"/>
-      <c r="U253" s="92"/>
-      <c r="V253" s="92"/>
-      <c r="W253" s="92"/>
-      <c r="X253" s="92"/>
-      <c r="Y253" s="92"/>
-      <c r="Z253" s="92"/>
-      <c r="AA253" s="92"/>
-      <c r="AB253" s="92"/>
-      <c r="AC253" s="90"/>
+      <c r="E253" s="112"/>
+      <c r="F253" s="113"/>
+      <c r="G253" s="114"/>
+      <c r="H253" s="115"/>
+      <c r="I253" s="115"/>
+      <c r="J253" s="115"/>
+      <c r="K253" s="115"/>
+      <c r="L253" s="115"/>
+      <c r="M253" s="116"/>
+      <c r="N253" s="91"/>
+      <c r="O253" s="117"/>
+      <c r="P253" s="118"/>
+      <c r="Q253" s="91"/>
+      <c r="R253" s="119"/>
+      <c r="S253" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="T253" s="119"/>
+      <c r="U253" s="119"/>
+      <c r="V253" s="119"/>
+      <c r="W253" s="119"/>
+      <c r="X253" s="119"/>
+      <c r="Y253" s="119"/>
+      <c r="Z253" s="119"/>
+      <c r="AA253" s="119"/>
+      <c r="AB253" s="119"/>
+      <c r="AC253" s="118"/>
     </row>
     <row r="254" spans="1:29" ht="13.5" customHeight="1">
       <c r="A254" s="28"/>
@@ -11052,12 +11059,12 @@
       <c r="O254" s="89"/>
       <c r="P254" s="90"/>
       <c r="Q254" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="R254" s="92" t="s">
-        <v>240</v>
-      </c>
-      <c r="S254" s="92"/>
+        <v>68</v>
+      </c>
+      <c r="R254" s="92"/>
+      <c r="S254" s="92" t="s">
+        <v>166</v>
+      </c>
       <c r="T254" s="92"/>
       <c r="U254" s="92"/>
       <c r="V254" s="92"/>
@@ -11069,40 +11076,40 @@
       <c r="AB254" s="92"/>
       <c r="AC254" s="90"/>
     </row>
-    <row r="255" spans="1:29" s="111" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A255" s="102"/>
-      <c r="B255" s="102"/>
-      <c r="C255" s="102"/>
-      <c r="D255" s="102"/>
-      <c r="E255" s="144"/>
-      <c r="F255" s="113"/>
-      <c r="G255" s="114"/>
-      <c r="H255" s="115"/>
-      <c r="I255" s="115"/>
-      <c r="J255" s="115"/>
-      <c r="K255" s="115"/>
-      <c r="L255" s="115"/>
-      <c r="M255" s="116"/>
-      <c r="N255" s="91"/>
-      <c r="O255" s="117"/>
-      <c r="P255" s="118"/>
+    <row r="255" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A255" s="28"/>
+      <c r="B255" s="28"/>
+      <c r="C255" s="28"/>
+      <c r="D255" s="28"/>
+      <c r="E255" s="83"/>
+      <c r="F255" s="84"/>
+      <c r="G255" s="85"/>
+      <c r="H255" s="86"/>
+      <c r="I255" s="86"/>
+      <c r="J255" s="86"/>
+      <c r="K255" s="86"/>
+      <c r="L255" s="86"/>
+      <c r="M255" s="87"/>
+      <c r="N255" s="88"/>
+      <c r="O255" s="89"/>
+      <c r="P255" s="90"/>
       <c r="Q255" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R255" s="119" t="s">
-        <v>122</v>
-      </c>
-      <c r="S255" s="119"/>
-      <c r="T255" s="119"/>
-      <c r="U255" s="119"/>
-      <c r="V255" s="119"/>
-      <c r="W255" s="119"/>
-      <c r="X255" s="119"/>
-      <c r="Y255" s="119"/>
-      <c r="Z255" s="119"/>
-      <c r="AA255" s="119"/>
-      <c r="AB255" s="119"/>
-      <c r="AC255" s="118"/>
+      <c r="R255" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="S255" s="92"/>
+      <c r="T255" s="92"/>
+      <c r="U255" s="92"/>
+      <c r="V255" s="92"/>
+      <c r="W255" s="92"/>
+      <c r="X255" s="92"/>
+      <c r="Y255" s="92"/>
+      <c r="Z255" s="92"/>
+      <c r="AA255" s="92"/>
+      <c r="AB255" s="92"/>
+      <c r="AC255" s="90"/>
     </row>
     <row r="256" spans="1:29" s="111" customFormat="1" ht="13.5" customHeight="1">
       <c r="A256" s="102"/>
@@ -11124,10 +11131,10 @@
       <c r="Q256" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R256" s="119"/>
-      <c r="S256" s="119" t="s">
-        <v>168</v>
-      </c>
+      <c r="R256" s="119" t="s">
+        <v>122</v>
+      </c>
+      <c r="S256" s="119"/>
       <c r="T256" s="119"/>
       <c r="U256" s="119"/>
       <c r="V256" s="119"/>
@@ -11161,7 +11168,7 @@
       </c>
       <c r="R257" s="119"/>
       <c r="S257" s="119" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="T257" s="119"/>
       <c r="U257" s="119"/>
@@ -11195,10 +11202,10 @@
         <v>159</v>
       </c>
       <c r="R258" s="119"/>
-      <c r="S258" s="119"/>
-      <c r="T258" s="119" t="s">
-        <v>84</v>
-      </c>
+      <c r="S258" s="119" t="s">
+        <v>134</v>
+      </c>
+      <c r="T258" s="119"/>
       <c r="U258" s="119"/>
       <c r="V258" s="119"/>
       <c r="W258" s="119"/>
@@ -11231,15 +11238,15 @@
       </c>
       <c r="R259" s="119"/>
       <c r="S259" s="119"/>
-      <c r="T259" s="119"/>
+      <c r="T259" s="119" t="s">
+        <v>84</v>
+      </c>
       <c r="U259" s="119"/>
       <c r="V259" s="119"/>
       <c r="W259" s="119"/>
       <c r="X259" s="119"/>
       <c r="Y259" s="119"/>
-      <c r="Z259" s="119" t="s">
-        <v>139</v>
-      </c>
+      <c r="Z259" s="119"/>
       <c r="AA259" s="119"/>
       <c r="AB259" s="119"/>
       <c r="AC259" s="118"/>
@@ -11265,16 +11272,16 @@
         <v>159</v>
       </c>
       <c r="R260" s="119"/>
-      <c r="S260" s="119" t="s">
-        <v>85</v>
-      </c>
+      <c r="S260" s="119"/>
       <c r="T260" s="119"/>
       <c r="U260" s="119"/>
       <c r="V260" s="119"/>
       <c r="W260" s="119"/>
       <c r="X260" s="119"/>
       <c r="Y260" s="119"/>
-      <c r="Z260" s="119"/>
+      <c r="Z260" s="119" t="s">
+        <v>139</v>
+      </c>
       <c r="AA260" s="119"/>
       <c r="AB260" s="119"/>
       <c r="AC260" s="118"/>
@@ -11299,28 +11306,26 @@
       <c r="Q261" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R261" s="119" t="s">
-        <v>141</v>
-      </c>
-      <c r="S261" s="119"/>
+      <c r="R261" s="119"/>
+      <c r="S261" s="119" t="s">
+        <v>85</v>
+      </c>
       <c r="T261" s="119"/>
       <c r="U261" s="119"/>
       <c r="V261" s="119"/>
       <c r="W261" s="119"/>
       <c r="X261" s="119"/>
       <c r="Y261" s="119"/>
-      <c r="Z261" s="119" t="s">
-        <v>140</v>
-      </c>
+      <c r="Z261" s="119"/>
       <c r="AA261" s="119"/>
       <c r="AB261" s="119"/>
       <c r="AC261" s="118"/>
     </row>
-    <row r="262" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A262" s="17"/>
-      <c r="B262" s="17"/>
-      <c r="C262" s="17"/>
-      <c r="D262" s="17"/>
+    <row r="262" spans="1:29" s="111" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A262" s="102"/>
+      <c r="B262" s="102"/>
+      <c r="C262" s="102"/>
+      <c r="D262" s="102"/>
       <c r="E262" s="144"/>
       <c r="F262" s="113"/>
       <c r="G262" s="114"/>
@@ -11333,9 +11338,11 @@
       <c r="N262" s="91"/>
       <c r="O262" s="117"/>
       <c r="P262" s="118"/>
-      <c r="Q262" s="91"/>
+      <c r="Q262" s="101" t="s">
+        <v>159</v>
+      </c>
       <c r="R262" s="119" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="S262" s="119"/>
       <c r="T262" s="119"/>
@@ -11344,80 +11351,80 @@
       <c r="W262" s="119"/>
       <c r="X262" s="119"/>
       <c r="Y262" s="119"/>
-      <c r="Z262" s="119"/>
+      <c r="Z262" s="119" t="s">
+        <v>140</v>
+      </c>
       <c r="AA262" s="119"/>
       <c r="AB262" s="119"/>
       <c r="AC262" s="118"/>
     </row>
-    <row r="263" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A263" s="28"/>
-      <c r="B263" s="28"/>
-      <c r="C263" s="28"/>
-      <c r="D263" s="28"/>
-      <c r="E263" s="83"/>
-      <c r="F263" s="84"/>
-      <c r="G263" s="85"/>
-      <c r="H263" s="86"/>
-      <c r="I263" s="86"/>
-      <c r="J263" s="86"/>
-      <c r="K263" s="86"/>
-      <c r="L263" s="86"/>
-      <c r="M263" s="87"/>
-      <c r="N263" s="88"/>
-      <c r="O263" s="89"/>
-      <c r="P263" s="90"/>
-      <c r="Q263" s="101" t="s">
+    <row r="263" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A263" s="17"/>
+      <c r="B263" s="17"/>
+      <c r="C263" s="17"/>
+      <c r="D263" s="17"/>
+      <c r="E263" s="144"/>
+      <c r="F263" s="113"/>
+      <c r="G263" s="114"/>
+      <c r="H263" s="115"/>
+      <c r="I263" s="115"/>
+      <c r="J263" s="115"/>
+      <c r="K263" s="115"/>
+      <c r="L263" s="115"/>
+      <c r="M263" s="116"/>
+      <c r="N263" s="91"/>
+      <c r="O263" s="117"/>
+      <c r="P263" s="118"/>
+      <c r="Q263" s="91"/>
+      <c r="R263" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="S263" s="119"/>
+      <c r="T263" s="119"/>
+      <c r="U263" s="119"/>
+      <c r="V263" s="119"/>
+      <c r="W263" s="119"/>
+      <c r="X263" s="119"/>
+      <c r="Y263" s="119"/>
+      <c r="Z263" s="119"/>
+      <c r="AA263" s="119"/>
+      <c r="AB263" s="119"/>
+      <c r="AC263" s="118"/>
+    </row>
+    <row r="264" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A264" s="28"/>
+      <c r="B264" s="28"/>
+      <c r="C264" s="28"/>
+      <c r="D264" s="28"/>
+      <c r="E264" s="83"/>
+      <c r="F264" s="84"/>
+      <c r="G264" s="85"/>
+      <c r="H264" s="86"/>
+      <c r="I264" s="86"/>
+      <c r="J264" s="86"/>
+      <c r="K264" s="86"/>
+      <c r="L264" s="86"/>
+      <c r="M264" s="87"/>
+      <c r="N264" s="88"/>
+      <c r="O264" s="89"/>
+      <c r="P264" s="90"/>
+      <c r="Q264" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="R263" s="92"/>
-      <c r="S263" s="92" t="s">
+      <c r="R264" s="92"/>
+      <c r="S264" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="T263" s="92"/>
-      <c r="U263" s="92"/>
-      <c r="V263" s="92"/>
-      <c r="W263" s="92"/>
-      <c r="X263" s="92"/>
-      <c r="Y263" s="92"/>
-      <c r="Z263" s="92"/>
-      <c r="AA263" s="92"/>
-      <c r="AB263" s="92"/>
-      <c r="AC263" s="90"/>
-    </row>
-    <row r="264" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A264" s="17"/>
-      <c r="B264" s="17"/>
-      <c r="C264" s="17"/>
-      <c r="D264" s="17"/>
-      <c r="E264" s="144"/>
-      <c r="F264" s="113"/>
-      <c r="G264" s="114"/>
-      <c r="H264" s="115"/>
-      <c r="I264" s="115"/>
-      <c r="J264" s="115"/>
-      <c r="K264" s="115"/>
-      <c r="L264" s="115"/>
-      <c r="M264" s="116"/>
-      <c r="N264" s="91"/>
-      <c r="O264" s="117"/>
-      <c r="P264" s="118"/>
-      <c r="Q264" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="R264" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S264" s="119"/>
-      <c r="T264" s="119"/>
-      <c r="U264" s="119"/>
-      <c r="V264" s="119"/>
-      <c r="W264" s="119"/>
+      <c r="T264" s="92"/>
+      <c r="U264" s="92"/>
+      <c r="V264" s="92"/>
+      <c r="W264" s="92"/>
       <c r="X264" s="92"/>
       <c r="Y264" s="92"/>
       <c r="Z264" s="92"/>
       <c r="AA264" s="92"/>
-      <c r="AB264" s="119"/>
-      <c r="AC264" s="118"/>
+      <c r="AB264" s="92"/>
+      <c r="AC264" s="90"/>
     </row>
     <row r="265" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
       <c r="A265" s="17"/>
@@ -11439,10 +11446,10 @@
       <c r="Q265" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R265" s="154"/>
-      <c r="S265" s="119" t="s">
-        <v>175</v>
-      </c>
+      <c r="R265" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="S265" s="119"/>
       <c r="T265" s="119"/>
       <c r="U265" s="119"/>
       <c r="V265" s="119"/>
@@ -11471,19 +11478,21 @@
       <c r="N266" s="91"/>
       <c r="O266" s="117"/>
       <c r="P266" s="118"/>
-      <c r="Q266" s="91"/>
-      <c r="R266" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="S266" s="119"/>
+      <c r="Q266" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="R266" s="154"/>
+      <c r="S266" s="119" t="s">
+        <v>175</v>
+      </c>
       <c r="T266" s="119"/>
       <c r="U266" s="119"/>
       <c r="V266" s="119"/>
       <c r="W266" s="119"/>
-      <c r="X266" s="119"/>
-      <c r="Y266" s="119"/>
-      <c r="Z266" s="119"/>
-      <c r="AA266" s="119"/>
+      <c r="X266" s="92"/>
+      <c r="Y266" s="92"/>
+      <c r="Z266" s="92"/>
+      <c r="AA266" s="92"/>
       <c r="AB266" s="119"/>
       <c r="AC266" s="118"/>
     </row>
@@ -11505,7 +11514,9 @@
       <c r="O267" s="117"/>
       <c r="P267" s="118"/>
       <c r="Q267" s="91"/>
-      <c r="R267" s="119"/>
+      <c r="R267" s="119" t="s">
+        <v>125</v>
+      </c>
       <c r="S267" s="119"/>
       <c r="T267" s="119"/>
       <c r="U267" s="119"/>
@@ -11518,80 +11529,77 @@
       <c r="AB267" s="119"/>
       <c r="AC267" s="118"/>
     </row>
-    <row r="268" spans="1:29" s="111" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A268" s="102"/>
-      <c r="B268" s="102"/>
-      <c r="C268" s="102"/>
-      <c r="D268" s="102"/>
-      <c r="E268" s="143">
+    <row r="268" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A268" s="17"/>
+      <c r="B268" s="17"/>
+      <c r="C268" s="17"/>
+      <c r="D268" s="17"/>
+      <c r="E268" s="144"/>
+      <c r="F268" s="113"/>
+      <c r="G268" s="114"/>
+      <c r="H268" s="115"/>
+      <c r="I268" s="115"/>
+      <c r="J268" s="115"/>
+      <c r="K268" s="115"/>
+      <c r="L268" s="115"/>
+      <c r="M268" s="116"/>
+      <c r="N268" s="91"/>
+      <c r="O268" s="117"/>
+      <c r="P268" s="118"/>
+      <c r="Q268" s="91"/>
+      <c r="R268" s="119"/>
+      <c r="S268" s="119"/>
+      <c r="T268" s="119"/>
+      <c r="U268" s="119"/>
+      <c r="V268" s="119"/>
+      <c r="W268" s="119"/>
+      <c r="X268" s="119"/>
+      <c r="Y268" s="119"/>
+      <c r="Z268" s="119"/>
+      <c r="AA268" s="119"/>
+      <c r="AB268" s="119"/>
+      <c r="AC268" s="118"/>
+    </row>
+    <row r="269" spans="1:29" s="111" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A269" s="102"/>
+      <c r="B269" s="102"/>
+      <c r="C269" s="102"/>
+      <c r="D269" s="102"/>
+      <c r="E269" s="143">
         <v>5</v>
       </c>
-      <c r="F268" s="104">
+      <c r="F269" s="104">
         <v>14</v>
       </c>
-      <c r="G268" s="105" t="s">
+      <c r="G269" s="105" t="s">
         <v>267</v>
       </c>
-      <c r="H268" s="106"/>
-      <c r="I268" s="106"/>
-      <c r="J268" s="106"/>
-      <c r="K268" s="106"/>
-      <c r="L268" s="106"/>
-      <c r="M268" s="107"/>
-      <c r="N268" s="58" t="s">
+      <c r="H269" s="106"/>
+      <c r="I269" s="106"/>
+      <c r="J269" s="106"/>
+      <c r="K269" s="106"/>
+      <c r="L269" s="106"/>
+      <c r="M269" s="107"/>
+      <c r="N269" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="O268" s="108"/>
-      <c r="P268" s="109"/>
-      <c r="Q268" s="58" t="s">
+      <c r="O269" s="108"/>
+      <c r="P269" s="109"/>
+      <c r="Q269" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="R268" s="110"/>
-      <c r="S268" s="110"/>
-      <c r="T268" s="110"/>
-      <c r="U268" s="110"/>
-      <c r="V268" s="110"/>
-      <c r="W268" s="110"/>
-      <c r="X268" s="110"/>
-      <c r="Y268" s="110"/>
-      <c r="Z268" s="110"/>
-      <c r="AA268" s="110"/>
-      <c r="AB268" s="110"/>
-      <c r="AC268" s="109"/>
-    </row>
-    <row r="269" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A269" s="28"/>
-      <c r="B269" s="28"/>
-      <c r="C269" s="28"/>
-      <c r="D269" s="28"/>
-      <c r="E269" s="112"/>
-      <c r="F269" s="113"/>
-      <c r="G269" s="114"/>
-      <c r="H269" s="115"/>
-      <c r="I269" s="115"/>
-      <c r="J269" s="115"/>
-      <c r="K269" s="115"/>
-      <c r="L269" s="115"/>
-      <c r="M269" s="116"/>
-      <c r="N269" s="91"/>
-      <c r="O269" s="117"/>
-      <c r="P269" s="118"/>
-      <c r="Q269" s="91"/>
-      <c r="R269" s="119" t="s">
-        <v>152</v>
-      </c>
-      <c r="S269" s="119"/>
-      <c r="T269" s="119"/>
-      <c r="U269" s="119"/>
-      <c r="V269" s="119"/>
-      <c r="W269" s="119" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y269" s="119"/>
-      <c r="Z269" s="119"/>
-      <c r="AA269" s="119"/>
-      <c r="AB269" s="119"/>
-      <c r="AC269" s="118"/>
+      <c r="R269" s="110"/>
+      <c r="S269" s="110"/>
+      <c r="T269" s="110"/>
+      <c r="U269" s="110"/>
+      <c r="V269" s="110"/>
+      <c r="W269" s="110"/>
+      <c r="X269" s="110"/>
+      <c r="Y269" s="110"/>
+      <c r="Z269" s="110"/>
+      <c r="AA269" s="110"/>
+      <c r="AB269" s="110"/>
+      <c r="AC269" s="109"/>
     </row>
     <row r="270" spans="1:29" ht="13.5" customHeight="1">
       <c r="A270" s="28"/>
@@ -11611,15 +11619,16 @@
       <c r="O270" s="117"/>
       <c r="P270" s="118"/>
       <c r="Q270" s="91"/>
-      <c r="R270" s="119"/>
-      <c r="S270" s="119" t="s">
-        <v>268</v>
-      </c>
+      <c r="R270" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="S270" s="119"/>
       <c r="T270" s="119"/>
       <c r="U270" s="119"/>
       <c r="V270" s="119"/>
-      <c r="W270" s="119"/>
-      <c r="X270" s="119"/>
+      <c r="W270" s="119" t="s">
+        <v>176</v>
+      </c>
       <c r="Y270" s="119"/>
       <c r="Z270" s="119"/>
       <c r="AA270" s="119"/>
@@ -11645,10 +11654,10 @@
       <c r="P271" s="118"/>
       <c r="Q271" s="91"/>
       <c r="R271" s="119"/>
-      <c r="S271" s="119"/>
-      <c r="T271" s="119" t="s">
-        <v>153</v>
-      </c>
+      <c r="S271" s="119" t="s">
+        <v>268</v>
+      </c>
+      <c r="T271" s="119"/>
       <c r="U271" s="119"/>
       <c r="V271" s="119"/>
       <c r="W271" s="119"/>
@@ -11678,10 +11687,10 @@
       <c r="P272" s="118"/>
       <c r="Q272" s="91"/>
       <c r="R272" s="119"/>
-      <c r="S272" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="T272" s="119"/>
+      <c r="S272" s="119"/>
+      <c r="T272" s="119" t="s">
+        <v>153</v>
+      </c>
       <c r="U272" s="119"/>
       <c r="V272" s="119"/>
       <c r="W272" s="119"/>
@@ -11697,70 +11706,68 @@
       <c r="B273" s="28"/>
       <c r="C273" s="28"/>
       <c r="D273" s="28"/>
-      <c r="E273" s="83"/>
-      <c r="F273" s="84"/>
-      <c r="G273" s="85"/>
-      <c r="H273" s="86"/>
-      <c r="I273" s="86"/>
-      <c r="J273" s="86"/>
-      <c r="K273" s="86"/>
-      <c r="L273" s="86"/>
-      <c r="M273" s="87"/>
-      <c r="N273" s="88"/>
-      <c r="O273" s="89"/>
-      <c r="P273" s="90"/>
-      <c r="Q273" s="101" t="s">
+      <c r="E273" s="112"/>
+      <c r="F273" s="113"/>
+      <c r="G273" s="114"/>
+      <c r="H273" s="115"/>
+      <c r="I273" s="115"/>
+      <c r="J273" s="115"/>
+      <c r="K273" s="115"/>
+      <c r="L273" s="115"/>
+      <c r="M273" s="116"/>
+      <c r="N273" s="91"/>
+      <c r="O273" s="117"/>
+      <c r="P273" s="118"/>
+      <c r="Q273" s="91"/>
+      <c r="R273" s="119"/>
+      <c r="S273" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="T273" s="119"/>
+      <c r="U273" s="119"/>
+      <c r="V273" s="119"/>
+      <c r="W273" s="119"/>
+      <c r="X273" s="119"/>
+      <c r="Y273" s="119"/>
+      <c r="Z273" s="119"/>
+      <c r="AA273" s="119"/>
+      <c r="AB273" s="119"/>
+      <c r="AC273" s="118"/>
+    </row>
+    <row r="274" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A274" s="28"/>
+      <c r="B274" s="28"/>
+      <c r="C274" s="28"/>
+      <c r="D274" s="28"/>
+      <c r="E274" s="83"/>
+      <c r="F274" s="84"/>
+      <c r="G274" s="85"/>
+      <c r="H274" s="86"/>
+      <c r="I274" s="86"/>
+      <c r="J274" s="86"/>
+      <c r="K274" s="86"/>
+      <c r="L274" s="86"/>
+      <c r="M274" s="87"/>
+      <c r="N274" s="88"/>
+      <c r="O274" s="89"/>
+      <c r="P274" s="90"/>
+      <c r="Q274" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="R273" s="92"/>
-      <c r="S273" s="92" t="s">
+      <c r="R274" s="92"/>
+      <c r="S274" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="T273" s="92"/>
-      <c r="U273" s="92"/>
-      <c r="V273" s="92"/>
-      <c r="W273" s="92"/>
-      <c r="X273" s="92"/>
-      <c r="Y273" s="92"/>
-      <c r="Z273" s="92"/>
-      <c r="AA273" s="92"/>
-      <c r="AB273" s="92"/>
-      <c r="AC273" s="90"/>
-    </row>
-    <row r="274" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A274" s="17"/>
-      <c r="B274" s="17"/>
-      <c r="C274" s="17"/>
-      <c r="D274" s="17"/>
-      <c r="E274" s="144"/>
-      <c r="F274" s="113"/>
-      <c r="G274" s="114"/>
-      <c r="H274" s="115"/>
-      <c r="I274" s="115"/>
-      <c r="J274" s="115"/>
-      <c r="K274" s="115"/>
-      <c r="L274" s="115"/>
-      <c r="M274" s="116"/>
-      <c r="N274" s="91"/>
-      <c r="O274" s="117"/>
-      <c r="P274" s="118"/>
-      <c r="Q274" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="R274" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S274" s="119"/>
-      <c r="T274" s="119"/>
-      <c r="U274" s="119"/>
-      <c r="V274" s="119"/>
-      <c r="W274" s="119"/>
-      <c r="X274" s="119"/>
-      <c r="Y274" s="119"/>
-      <c r="Z274" s="119"/>
-      <c r="AA274" s="119"/>
-      <c r="AB274" s="119"/>
-      <c r="AC274" s="118"/>
+      <c r="T274" s="92"/>
+      <c r="U274" s="92"/>
+      <c r="V274" s="92"/>
+      <c r="W274" s="92"/>
+      <c r="X274" s="92"/>
+      <c r="Y274" s="92"/>
+      <c r="Z274" s="92"/>
+      <c r="AA274" s="92"/>
+      <c r="AB274" s="92"/>
+      <c r="AC274" s="90"/>
     </row>
     <row r="275" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
       <c r="A275" s="17"/>
@@ -11782,10 +11789,10 @@
       <c r="Q275" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="R275" s="154"/>
-      <c r="S275" s="119" t="s">
-        <v>135</v>
-      </c>
+      <c r="R275" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="S275" s="119"/>
       <c r="T275" s="119"/>
       <c r="U275" s="119"/>
       <c r="V275" s="119"/>
@@ -11797,11 +11804,11 @@
       <c r="AB275" s="119"/>
       <c r="AC275" s="118"/>
     </row>
-    <row r="276" spans="1:29" s="111" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A276" s="102"/>
-      <c r="B276" s="102"/>
-      <c r="C276" s="102"/>
-      <c r="D276" s="102"/>
+    <row r="276" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A276" s="17"/>
+      <c r="B276" s="17"/>
+      <c r="C276" s="17"/>
+      <c r="D276" s="17"/>
       <c r="E276" s="144"/>
       <c r="F276" s="113"/>
       <c r="G276" s="114"/>
@@ -11814,11 +11821,13 @@
       <c r="N276" s="91"/>
       <c r="O276" s="117"/>
       <c r="P276" s="118"/>
-      <c r="Q276" s="101"/>
-      <c r="R276" s="119" t="s">
-        <v>177</v>
-      </c>
-      <c r="S276" s="119"/>
+      <c r="Q276" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="R276" s="154"/>
+      <c r="S276" s="119" t="s">
+        <v>135</v>
+      </c>
       <c r="T276" s="119"/>
       <c r="U276" s="119"/>
       <c r="V276" s="119"/>
@@ -11849,7 +11858,7 @@
       <c r="P277" s="118"/>
       <c r="Q277" s="101"/>
       <c r="R277" s="119" t="s">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c r="S277" s="119"/>
       <c r="T277" s="119"/>
@@ -11858,9 +11867,7 @@
       <c r="W277" s="119"/>
       <c r="X277" s="119"/>
       <c r="Y277" s="119"/>
-      <c r="Z277" s="119" t="s">
-        <v>269</v>
-      </c>
+      <c r="Z277" s="119"/>
       <c r="AA277" s="119"/>
       <c r="AB277" s="119"/>
       <c r="AC277" s="118"/>
@@ -11870,72 +11877,107 @@
       <c r="B278" s="102"/>
       <c r="C278" s="102"/>
       <c r="D278" s="102"/>
-      <c r="E278" s="145"/>
-      <c r="F278" s="121"/>
-      <c r="G278" s="122"/>
-      <c r="H278" s="123"/>
-      <c r="I278" s="123"/>
-      <c r="J278" s="123"/>
-      <c r="K278" s="123"/>
-      <c r="L278" s="123"/>
-      <c r="M278" s="124"/>
-      <c r="N278" s="100"/>
-      <c r="O278" s="125"/>
-      <c r="P278" s="126"/>
-      <c r="Q278" s="100"/>
-      <c r="R278" s="127"/>
-      <c r="S278" s="127"/>
-      <c r="T278" s="127"/>
-      <c r="U278" s="127"/>
-      <c r="V278" s="127"/>
-      <c r="W278" s="127"/>
-      <c r="X278" s="127"/>
-      <c r="Y278" s="127"/>
-      <c r="Z278" s="127"/>
-      <c r="AA278" s="127"/>
-      <c r="AB278" s="127"/>
-      <c r="AC278" s="126"/>
-    </row>
-    <row r="279" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A279" s="17"/>
-      <c r="B279" s="17"/>
-      <c r="C279" s="17"/>
-      <c r="D279" s="17"/>
-      <c r="E279" s="132">
+      <c r="E278" s="144"/>
+      <c r="F278" s="113"/>
+      <c r="G278" s="114"/>
+      <c r="H278" s="115"/>
+      <c r="I278" s="115"/>
+      <c r="J278" s="115"/>
+      <c r="K278" s="115"/>
+      <c r="L278" s="115"/>
+      <c r="M278" s="116"/>
+      <c r="N278" s="91"/>
+      <c r="O278" s="117"/>
+      <c r="P278" s="118"/>
+      <c r="Q278" s="101"/>
+      <c r="R278" s="119" t="s">
+        <v>270</v>
+      </c>
+      <c r="S278" s="119"/>
+      <c r="T278" s="119"/>
+      <c r="U278" s="119"/>
+      <c r="V278" s="119"/>
+      <c r="W278" s="119"/>
+      <c r="X278" s="119"/>
+      <c r="Y278" s="119"/>
+      <c r="Z278" s="119" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA278" s="119"/>
+      <c r="AB278" s="119"/>
+      <c r="AC278" s="118"/>
+    </row>
+    <row r="279" spans="1:29" s="111" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A279" s="102"/>
+      <c r="B279" s="102"/>
+      <c r="C279" s="102"/>
+      <c r="D279" s="102"/>
+      <c r="E279" s="145"/>
+      <c r="F279" s="121"/>
+      <c r="G279" s="122"/>
+      <c r="H279" s="123"/>
+      <c r="I279" s="123"/>
+      <c r="J279" s="123"/>
+      <c r="K279" s="123"/>
+      <c r="L279" s="123"/>
+      <c r="M279" s="124"/>
+      <c r="N279" s="100"/>
+      <c r="O279" s="125"/>
+      <c r="P279" s="126"/>
+      <c r="Q279" s="100"/>
+      <c r="R279" s="127"/>
+      <c r="S279" s="127"/>
+      <c r="T279" s="127"/>
+      <c r="U279" s="127"/>
+      <c r="V279" s="127"/>
+      <c r="W279" s="127"/>
+      <c r="X279" s="127"/>
+      <c r="Y279" s="127"/>
+      <c r="Z279" s="127"/>
+      <c r="AA279" s="127"/>
+      <c r="AB279" s="127"/>
+      <c r="AC279" s="126"/>
+    </row>
+    <row r="280" spans="1:29" s="142" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A280" s="17"/>
+      <c r="B280" s="17"/>
+      <c r="C280" s="17"/>
+      <c r="D280" s="17"/>
+      <c r="E280" s="132">
         <v>6</v>
       </c>
-      <c r="F279" s="147">
+      <c r="F280" s="147">
         <v>15</v>
       </c>
-      <c r="G279" s="148" t="s">
+      <c r="G280" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="H279" s="149"/>
-      <c r="I279" s="149"/>
-      <c r="J279" s="149"/>
-      <c r="K279" s="149"/>
-      <c r="L279" s="149"/>
-      <c r="M279" s="150"/>
-      <c r="N279" s="151" t="s">
+      <c r="H280" s="149"/>
+      <c r="I280" s="149"/>
+      <c r="J280" s="149"/>
+      <c r="K280" s="149"/>
+      <c r="L280" s="149"/>
+      <c r="M280" s="150"/>
+      <c r="N280" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="O279" s="152"/>
-      <c r="P279" s="153"/>
-      <c r="Q279" s="151" t="s">
+      <c r="O280" s="152"/>
+      <c r="P280" s="153"/>
+      <c r="Q280" s="151" t="s">
         <v>125</v>
       </c>
-      <c r="R279" s="140"/>
-      <c r="S279" s="140"/>
-      <c r="T279" s="140"/>
-      <c r="U279" s="140"/>
-      <c r="V279" s="140"/>
-      <c r="W279" s="140"/>
-      <c r="X279" s="140"/>
-      <c r="Y279" s="140"/>
-      <c r="Z279" s="140"/>
-      <c r="AA279" s="140"/>
-      <c r="AB279" s="140"/>
-      <c r="AC279" s="153"/>
+      <c r="R280" s="140"/>
+      <c r="S280" s="140"/>
+      <c r="T280" s="140"/>
+      <c r="U280" s="140"/>
+      <c r="V280" s="140"/>
+      <c r="W280" s="140"/>
+      <c r="X280" s="140"/>
+      <c r="Y280" s="140"/>
+      <c r="Z280" s="140"/>
+      <c r="AA280" s="140"/>
+      <c r="AB280" s="140"/>
+      <c r="AC280" s="153"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
@@ -11949,7 +11991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F447C11F-8C4A-4D4C-9A28-E62DBC93C1F1}">
   <dimension ref="A1:AJ133"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A58" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
